--- a/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.78773502395281</v>
+        <v>25.78773502395272</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>16.9108337955828</v>
+        <v>16.91083379558293</v>
       </c>
       <c r="E2">
-        <v>25.19405893716237</v>
+        <v>25.19405893716238</v>
       </c>
       <c r="F2">
-        <v>86.68546239844642</v>
+        <v>86.6854623984465</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10.51020690709401</v>
+        <v>10.5102069070939</v>
       </c>
       <c r="I2">
-        <v>11.77797528904313</v>
+        <v>11.77797528904307</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>67.35989028781657</v>
+        <v>67.3598902878166</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.80612476368729</v>
+        <v>23.80612476368737</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.08721239908308</v>
+        <v>15.08721239908306</v>
       </c>
       <c r="E3">
-        <v>22.99872468710964</v>
+        <v>22.99872468710971</v>
       </c>
       <c r="F3">
-        <v>77.3465862064764</v>
+        <v>77.34658620647679</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.73575415665525</v>
+        <v>10.73575415665517</v>
       </c>
       <c r="I3">
-        <v>11.00635843412995</v>
+        <v>11.00635843413003</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>61.26082867416562</v>
+        <v>61.26082867416582</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56782108013662</v>
+        <v>22.56782108013659</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.03489175684586</v>
+        <v>14.03489175684574</v>
       </c>
       <c r="E4">
-        <v>21.6940594571526</v>
+        <v>21.69405945715245</v>
       </c>
       <c r="F4">
-        <v>71.98184077032326</v>
+        <v>71.9818407703229</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>10.97259609110123</v>
       </c>
       <c r="I4">
-        <v>10.54583932013592</v>
+        <v>10.54583932013584</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>57.61044766404062</v>
+        <v>57.61044766404043</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.05457850156672</v>
+        <v>22.05457850156663</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.6147224013597</v>
+        <v>13.61472240135971</v>
       </c>
       <c r="E5">
-        <v>21.16520837836502</v>
+        <v>21.16520837836488</v>
       </c>
       <c r="F5">
-        <v>69.84770185188087</v>
+        <v>69.84770185188052</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.08793853426602</v>
+        <v>11.08793853426608</v>
       </c>
       <c r="I5">
-        <v>10.35916340726106</v>
+        <v>10.35916340726098</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>56.1265600409266</v>
+        <v>56.12656004092636</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.96876743937651</v>
+        <v>21.96876743937645</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.54530711692588</v>
+        <v>13.54530711692572</v>
       </c>
       <c r="E6">
-        <v>21.07740008505417</v>
+        <v>21.07740008505405</v>
       </c>
       <c r="F6">
-        <v>69.49564309941188</v>
+        <v>69.49564309941152</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11.10809184964198</v>
+        <v>11.10809184964211</v>
       </c>
       <c r="I6">
-        <v>10.3281805036753</v>
+        <v>10.32818050367527</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>55.8799709960623</v>
+        <v>55.87997099606212</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56093737968939</v>
+        <v>22.56093737968935</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.02919817613951</v>
+        <v>14.02919817613946</v>
       </c>
       <c r="E7">
-        <v>21.68692353451443</v>
+        <v>21.68692353451434</v>
       </c>
       <c r="F7">
-        <v>71.95288769866288</v>
+        <v>71.95288769866252</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10.97408178211093</v>
+        <v>10.97408178211095</v>
       </c>
       <c r="I7">
-        <v>10.54331990222541</v>
+        <v>10.54331990222535</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>57.59044010354045</v>
+        <v>57.59044010354024</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.10642099234703</v>
+        <v>25.10642099234704</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.2614060739034</v>
+        <v>16.26140607390338</v>
       </c>
       <c r="E8">
-        <v>24.42157844424327</v>
+        <v>24.42157844424322</v>
       </c>
       <c r="F8">
-        <v>83.35585803613198</v>
+        <v>83.35585803613193</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10.5632632521111</v>
+        <v>10.56326325211113</v>
       </c>
       <c r="I8">
-        <v>11.50722355164136</v>
+        <v>11.50722355164133</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>65.22123555144367</v>
+        <v>65.22123555144364</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E9">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F9">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I9">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E10">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F10">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I10">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E11">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F11">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I11">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E12">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F12">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I12">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E13">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F13">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I13">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E14">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F14">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I14">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E15">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F15">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I15">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E16">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F16">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I16">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E17">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F17">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I17">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E18">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F18">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I18">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E19">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F19">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I19">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E20">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F20">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I20">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E21">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F21">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I21">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E22">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F22">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I22">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E23">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F23">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I23">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E24">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F24">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I24">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.36089115895911</v>
+        <v>30.36089115895919</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>22.34812334153151</v>
+        <v>22.34812334153173</v>
       </c>
       <c r="E25">
-        <v>31.31527809324936</v>
+        <v>31.31527809324973</v>
       </c>
       <c r="F25">
-        <v>114.4323251583161</v>
+        <v>114.4323251583171</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13.61375870422907</v>
+        <v>13.613758704229</v>
       </c>
       <c r="I25">
-        <v>13.87254165172861</v>
+        <v>13.87254165172878</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>83.75215507341434</v>
+        <v>83.7521550734148</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.78773502395272</v>
+        <v>25.78773502395281</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>16.91083379558293</v>
+        <v>16.9108337955828</v>
       </c>
       <c r="E2">
-        <v>25.19405893716238</v>
+        <v>25.19405893716237</v>
       </c>
       <c r="F2">
-        <v>86.6854623984465</v>
+        <v>86.68546239844642</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10.5102069070939</v>
+        <v>10.51020690709401</v>
       </c>
       <c r="I2">
-        <v>11.77797528904307</v>
+        <v>11.77797528904313</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>67.3598902878166</v>
+        <v>67.35989028781657</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.80612476368737</v>
+        <v>23.80612476368729</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.08721239908306</v>
+        <v>15.08721239908308</v>
       </c>
       <c r="E3">
-        <v>22.99872468710971</v>
+        <v>22.99872468710964</v>
       </c>
       <c r="F3">
-        <v>77.34658620647679</v>
+        <v>77.3465862064764</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.73575415665517</v>
+        <v>10.73575415665525</v>
       </c>
       <c r="I3">
-        <v>11.00635843413003</v>
+        <v>11.00635843412995</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>61.26082867416582</v>
+        <v>61.26082867416562</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56782108013659</v>
+        <v>22.56782108013662</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.03489175684574</v>
+        <v>14.03489175684586</v>
       </c>
       <c r="E4">
-        <v>21.69405945715245</v>
+        <v>21.6940594571526</v>
       </c>
       <c r="F4">
-        <v>71.9818407703229</v>
+        <v>71.98184077032326</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>10.97259609110123</v>
       </c>
       <c r="I4">
-        <v>10.54583932013584</v>
+        <v>10.54583932013592</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>57.61044766404043</v>
+        <v>57.61044766404062</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.05457850156663</v>
+        <v>22.05457850156672</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.61472240135971</v>
+        <v>13.6147224013597</v>
       </c>
       <c r="E5">
-        <v>21.16520837836488</v>
+        <v>21.16520837836502</v>
       </c>
       <c r="F5">
-        <v>69.84770185188052</v>
+        <v>69.84770185188087</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11.08793853426608</v>
+        <v>11.08793853426602</v>
       </c>
       <c r="I5">
-        <v>10.35916340726098</v>
+        <v>10.35916340726106</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>56.12656004092636</v>
+        <v>56.1265600409266</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.96876743937645</v>
+        <v>21.96876743937651</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.54530711692572</v>
+        <v>13.54530711692588</v>
       </c>
       <c r="E6">
-        <v>21.07740008505405</v>
+        <v>21.07740008505417</v>
       </c>
       <c r="F6">
-        <v>69.49564309941152</v>
+        <v>69.49564309941188</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11.10809184964211</v>
+        <v>11.10809184964198</v>
       </c>
       <c r="I6">
-        <v>10.32818050367527</v>
+        <v>10.3281805036753</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>55.87997099606212</v>
+        <v>55.8799709960623</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56093737968935</v>
+        <v>22.56093737968939</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.02919817613946</v>
+        <v>14.02919817613951</v>
       </c>
       <c r="E7">
-        <v>21.68692353451434</v>
+        <v>21.68692353451443</v>
       </c>
       <c r="F7">
-        <v>71.95288769866252</v>
+        <v>71.95288769866288</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10.97408178211095</v>
+        <v>10.97408178211093</v>
       </c>
       <c r="I7">
-        <v>10.54331990222535</v>
+        <v>10.54331990222541</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>57.59044010354024</v>
+        <v>57.59044010354045</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.10642099234704</v>
+        <v>25.10642099234703</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.26140607390338</v>
+        <v>16.2614060739034</v>
       </c>
       <c r="E8">
-        <v>24.42157844424322</v>
+        <v>24.42157844424327</v>
       </c>
       <c r="F8">
-        <v>83.35585803613193</v>
+        <v>83.35585803613198</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10.56326325211113</v>
+        <v>10.5632632521111</v>
       </c>
       <c r="I8">
-        <v>11.50722355164133</v>
+        <v>11.50722355164136</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>65.22123555144364</v>
+        <v>65.22123555144367</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E9">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F9">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I9">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E10">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F10">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I10">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E11">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F11">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I11">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E12">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F12">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I12">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E13">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F13">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I13">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E14">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F14">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I14">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E15">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F15">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I15">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E16">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F16">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I16">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E17">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F17">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I17">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E18">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F18">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I18">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E19">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F19">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I19">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E20">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F20">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I20">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E21">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F21">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I21">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E22">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F22">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I22">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E23">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F23">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I23">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E24">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F24">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I24">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.36089115895919</v>
+        <v>30.36089115895911</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>22.34812334153173</v>
+        <v>22.34812334153151</v>
       </c>
       <c r="E25">
-        <v>31.31527809324973</v>
+        <v>31.31527809324936</v>
       </c>
       <c r="F25">
-        <v>114.4323251583171</v>
+        <v>114.4323251583161</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13.613758704229</v>
+        <v>13.61375870422907</v>
       </c>
       <c r="I25">
-        <v>13.87254165172878</v>
+        <v>13.87254165172861</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>83.7521550734148</v>
+        <v>83.75215507341434</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.78773502395281</v>
+        <v>25.70932559645204</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>16.9108337955828</v>
+        <v>16.64877448129844</v>
       </c>
       <c r="E2">
-        <v>25.19405893716237</v>
+        <v>24.90068067405902</v>
       </c>
       <c r="F2">
-        <v>86.68546239844642</v>
+        <v>85.71895122025491</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.764953231980114</v>
       </c>
       <c r="H2">
-        <v>10.51020690709401</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.77797528904313</v>
+        <v>10.59811215112889</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.65461772888715</v>
       </c>
       <c r="K2">
-        <v>67.35989028781657</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>66.8677103738482</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.80612476368729</v>
+        <v>23.73918232667623</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.08721239908308</v>
+        <v>14.86113284433762</v>
       </c>
       <c r="E3">
-        <v>22.99872468710964</v>
+        <v>22.73453942652255</v>
       </c>
       <c r="F3">
-        <v>77.3465862064764</v>
+        <v>76.5881576428847</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.825305042704745</v>
       </c>
       <c r="H3">
-        <v>10.73575415665525</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.00635843412995</v>
+        <v>10.84984670926017</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.88746915393337</v>
       </c>
       <c r="K3">
-        <v>61.26082867416562</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>60.85116534304004</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56782108013662</v>
+        <v>22.50616281037454</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.03489175684586</v>
+        <v>13.82645791826728</v>
       </c>
       <c r="E4">
-        <v>21.6940594571526</v>
+        <v>21.44192745279212</v>
       </c>
       <c r="F4">
-        <v>71.98184077032326</v>
+        <v>71.33247475079885</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.858980742848044</v>
       </c>
       <c r="H4">
-        <v>10.97259609110123</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>10.54583932013592</v>
+        <v>11.09947755327618</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.42754776641501</v>
       </c>
       <c r="K4">
-        <v>57.61044766404062</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>57.24005701925561</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.05457850156672</v>
+        <v>21.99482780561915</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.6147224013597</v>
+        <v>13.41292024373945</v>
       </c>
       <c r="E5">
-        <v>21.16520837836502</v>
+        <v>20.91708610206581</v>
       </c>
       <c r="F5">
-        <v>69.84770185188087</v>
+        <v>69.24090382927459</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.872177482781231</v>
       </c>
       <c r="H5">
-        <v>11.08793853426602</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>10.35916340726106</v>
+        <v>11.21945411437485</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.24075850562012</v>
       </c>
       <c r="K5">
-        <v>56.1265600409266</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>55.77064039641277</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.96876743937651</v>
+        <v>21.9093220906551</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.54530711692588</v>
+        <v>13.34458234200354</v>
       </c>
       <c r="E6">
-        <v>21.07740008505417</v>
+        <v>20.82989903479665</v>
       </c>
       <c r="F6">
-        <v>69.49564309941188</v>
+        <v>68.89585174058107</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.874343693549766</v>
       </c>
       <c r="H6">
-        <v>11.10809184964198</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>10.3281805036753</v>
+        <v>11.24034749577102</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.20973836910003</v>
       </c>
       <c r="K6">
-        <v>55.8799709960623</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>55.52638529149328</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56093737968939</v>
+        <v>22.49930566525565</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.02919817613951</v>
+        <v>13.82085555900613</v>
       </c>
       <c r="E7">
-        <v>21.68692353451443</v>
+        <v>21.43484878008721</v>
       </c>
       <c r="F7">
-        <v>71.95288769866288</v>
+        <v>71.30410088883869</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.859160533121785</v>
       </c>
       <c r="H7">
-        <v>10.97408178211093</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>10.54331990222541</v>
+        <v>11.10102782401252</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.42502811283735</v>
       </c>
       <c r="K7">
-        <v>57.59044010354045</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>57.22024968846377</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.10642099234703</v>
+        <v>25.03250518992078</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.2614060739034</v>
+        <v>16.01317190327526</v>
       </c>
       <c r="E8">
-        <v>24.42157844424327</v>
+        <v>24.14000232695787</v>
       </c>
       <c r="F8">
-        <v>83.35585803613198</v>
+        <v>82.46745777367478</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.786721901552748</v>
       </c>
       <c r="H8">
-        <v>10.5632632521111</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.50722355164136</v>
+        <v>10.6610751752991</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.38601708744531</v>
       </c>
       <c r="K8">
-        <v>65.22123555144367</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>64.76105710118297</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E9">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F9">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H9">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K9">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E10">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F10">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H10">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K10">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E11">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F11">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H11">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K11">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E12">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F12">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H12">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K12">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E13">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F13">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H13">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K13">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E14">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F14">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H14">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K14">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E15">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F15">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H15">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K15">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E16">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F16">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H16">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K16">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E17">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F17">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H17">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K17">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E18">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F18">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H18">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K18">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E19">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F19">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H19">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K19">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E20">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F20">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H20">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K20">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E21">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F21">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H21">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K21">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E22">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F22">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H22">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K22">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E23">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F23">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H23">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K23">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E24">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F24">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H24">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K24">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.36089115895911</v>
+        <v>30.19559655954752</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>22.34812334153151</v>
+        <v>21.83587350395515</v>
       </c>
       <c r="E25">
-        <v>31.31527809324936</v>
+        <v>30.76974803375181</v>
       </c>
       <c r="F25">
-        <v>114.4323251583161</v>
+        <v>112.1888301683636</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.575188356587134</v>
       </c>
       <c r="H25">
-        <v>13.61375870422907</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>13.87254165172861</v>
+        <v>13.38648365640933</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.67687565869743</v>
       </c>
       <c r="K25">
-        <v>83.75215507341434</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>82.66740035186665</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.70932559645204</v>
+        <v>18.75915939491468</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>16.64877448129844</v>
+        <v>5.960671005721504</v>
       </c>
       <c r="E2">
-        <v>24.90068067405902</v>
+        <v>23.22790525260224</v>
       </c>
       <c r="F2">
-        <v>85.71895122025491</v>
+        <v>50.01172870398889</v>
       </c>
       <c r="G2">
-        <v>1.764953231980114</v>
+        <v>2.001205796703674</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.59811215112889</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.65461772888715</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>37.66843114877352</v>
       </c>
       <c r="L2">
-        <v>66.8677103738482</v>
+        <v>12.27577919180833</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>12.897168854713</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.73918232667623</v>
+        <v>17.67424349977712</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>14.86113284433762</v>
+        <v>5.759226087685054</v>
       </c>
       <c r="E3">
-        <v>22.73453942652255</v>
+        <v>21.70064569947151</v>
       </c>
       <c r="F3">
-        <v>76.5881576428847</v>
+        <v>46.74319254141553</v>
       </c>
       <c r="G3">
-        <v>1.825305042704745</v>
+        <v>2.020648937916105</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.84984670926017</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.88746915393337</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>34.84448543765495</v>
       </c>
       <c r="L3">
-        <v>60.85116534304004</v>
+        <v>11.37504457677314</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>13.22537229578394</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.50616281037454</v>
+        <v>16.99432898699686</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>13.82645791826728</v>
+        <v>5.644338142385366</v>
       </c>
       <c r="E4">
-        <v>21.44192745279212</v>
+        <v>20.73785250386328</v>
       </c>
       <c r="F4">
-        <v>71.33247475079885</v>
+        <v>44.71570547236528</v>
       </c>
       <c r="G4">
-        <v>1.858980742848044</v>
+        <v>2.032666258751178</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.09947755327618</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10.42754776641501</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>33.04061496484425</v>
       </c>
       <c r="L4">
-        <v>57.24005701925561</v>
+        <v>10.79889118861909</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>13.42868752777573</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.99482780561915</v>
+        <v>16.71391570598708</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.41292024373945</v>
+        <v>5.599588622186038</v>
       </c>
       <c r="E5">
-        <v>20.91708610206581</v>
+        <v>20.33871615819349</v>
       </c>
       <c r="F5">
-        <v>69.24090382927459</v>
+        <v>43.88404923082538</v>
       </c>
       <c r="G5">
-        <v>1.872177482781231</v>
+        <v>2.037594542749914</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.21945411437485</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.24075850562012</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>32.2870745728958</v>
       </c>
       <c r="L5">
-        <v>55.77064039641277</v>
+        <v>10.55805097863094</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>13.51208883546133</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.9093220906551</v>
+        <v>16.66715661610087</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.34458234200354</v>
+        <v>5.592278950084119</v>
       </c>
       <c r="E6">
-        <v>20.82989903479665</v>
+        <v>20.27201764186192</v>
       </c>
       <c r="F6">
-        <v>68.89585174058107</v>
+        <v>43.74562364401465</v>
       </c>
       <c r="G6">
-        <v>1.874343693549766</v>
+        <v>2.038415059970382</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.24034749577102</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10.20973836910003</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>32.16081246803857</v>
       </c>
       <c r="L6">
-        <v>55.52638529149328</v>
+        <v>10.51768747049683</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>13.52597336751067</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.49930566525565</v>
+        <v>16.99056054667856</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>13.82085555900613</v>
+        <v>5.643726441186723</v>
       </c>
       <c r="E7">
-        <v>21.43484878008721</v>
+        <v>20.73249766867042</v>
       </c>
       <c r="F7">
-        <v>71.30410088883869</v>
+        <v>44.70451158803328</v>
       </c>
       <c r="G7">
-        <v>1.859160533121785</v>
+        <v>2.032732583551513</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.10102782401252</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10.42502811283735</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>33.03052820903014</v>
       </c>
       <c r="L7">
-        <v>57.22024968846377</v>
+        <v>10.79566794355028</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>13.42980996354346</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.03250518992078</v>
+        <v>18.38798332865181</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.01317190327526</v>
+        <v>5.88929411877419</v>
       </c>
       <c r="E8">
-        <v>24.14000232695787</v>
+        <v>22.70617040976433</v>
       </c>
       <c r="F8">
-        <v>82.46745777367478</v>
+        <v>48.88874649194572</v>
       </c>
       <c r="G8">
-        <v>1.786721901552748</v>
+        <v>2.007900637989614</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.6610751752991</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>11.38601708744531</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>36.70870160826023</v>
       </c>
       <c r="L8">
-        <v>64.76105710118297</v>
+        <v>11.96984257835638</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>13.01002158151398</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.19559655954752</v>
+        <v>21.01868917327015</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>21.83587350395515</v>
+        <v>6.448351743022633</v>
       </c>
       <c r="E9">
-        <v>30.76974803375181</v>
+        <v>26.40741774215349</v>
       </c>
       <c r="F9">
-        <v>112.1888301683636</v>
+        <v>57.17606983580247</v>
       </c>
       <c r="G9">
-        <v>1.575188356587134</v>
+        <v>1.959224423173072</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>43.41238794260781</v>
       </c>
       <c r="L9">
-        <v>82.66740035186665</v>
+        <v>14.10215118023773</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>12.19617711681132</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.19559655954752</v>
+        <v>23.06621247419596</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>21.83587350395515</v>
+        <v>6.919915910348876</v>
       </c>
       <c r="E10">
-        <v>30.76974803375181</v>
+        <v>29.07951849914368</v>
       </c>
       <c r="F10">
-        <v>112.1888301683636</v>
+        <v>63.40301779419253</v>
       </c>
       <c r="G10">
-        <v>1.575188356587134</v>
+        <v>1.922408246444235</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>48.10636855060947</v>
       </c>
       <c r="L10">
-        <v>82.66740035186665</v>
+        <v>15.58731485898731</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>11.59617122114809</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.19559655954752</v>
+        <v>24.00832969903453</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>21.83587350395515</v>
+        <v>7.151956591365423</v>
       </c>
       <c r="E11">
-        <v>30.76974803375181</v>
+        <v>30.30305769398458</v>
       </c>
       <c r="F11">
-        <v>112.1888301683636</v>
+        <v>66.25175751423686</v>
       </c>
       <c r="G11">
-        <v>1.575188356587134</v>
+        <v>1.905104565001186</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>50.21549940536332</v>
       </c>
       <c r="L11">
-        <v>82.66740035186665</v>
+        <v>16.25194472150518</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>11.32070769003146</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.19559655954752</v>
+        <v>24.3630199605087</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>21.83587350395515</v>
+        <v>7.242853303131273</v>
       </c>
       <c r="E12">
-        <v>30.76974803375181</v>
+        <v>30.76966686077111</v>
       </c>
       <c r="F12">
-        <v>112.1888301683636</v>
+        <v>67.33672987590114</v>
       </c>
       <c r="G12">
-        <v>1.575188356587134</v>
+        <v>1.898434984383115</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>51.0131121768976</v>
       </c>
       <c r="L12">
-        <v>82.66740035186665</v>
+        <v>16.50279135498267</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>11.21583194628004</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.19559655954752</v>
+        <v>24.28670864958122</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>21.83587350395515</v>
+        <v>7.223132475849869</v>
       </c>
       <c r="E13">
-        <v>30.76974803375181</v>
+        <v>30.66898690060994</v>
       </c>
       <c r="F13">
-        <v>112.1888301683636</v>
+        <v>67.10270902410765</v>
       </c>
       <c r="G13">
-        <v>1.575188356587134</v>
+        <v>1.899877315222558</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>50.84132803308936</v>
       </c>
       <c r="L13">
-        <v>82.66740035186665</v>
+        <v>16.44878999450935</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>11.23844744355751</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.19559655954752</v>
+        <v>24.03754663151664</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>21.83587350395515</v>
+        <v>7.15937052187435</v>
       </c>
       <c r="E14">
-        <v>30.76974803375181</v>
+        <v>30.34136549326998</v>
       </c>
       <c r="F14">
-        <v>112.1888301683636</v>
+        <v>66.34086729463375</v>
       </c>
       <c r="G14">
-        <v>1.575188356587134</v>
+        <v>1.904558452599644</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>50.28112265712254</v>
       </c>
       <c r="L14">
-        <v>82.66740035186665</v>
+        <v>16.27259372596529</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>11.31209206668783</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.19559655954752</v>
+        <v>23.8846843753916</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.83587350395515</v>
+        <v>7.120726726647606</v>
       </c>
       <c r="E15">
-        <v>30.76974803375181</v>
+        <v>30.1411900458226</v>
       </c>
       <c r="F15">
-        <v>112.1888301683636</v>
+        <v>65.87516438489007</v>
       </c>
       <c r="G15">
-        <v>1.575188356587134</v>
+        <v>1.907409252909224</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>49.93793473545834</v>
       </c>
       <c r="L15">
-        <v>82.66740035186665</v>
+        <v>16.16458543101344</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>11.35712158542202</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.19559655954752</v>
+        <v>23.00430760490313</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>21.83587350395515</v>
+        <v>6.905143967395939</v>
       </c>
       <c r="E16">
-        <v>30.76974803375181</v>
+        <v>28.99988581693987</v>
       </c>
       <c r="F16">
-        <v>112.1888301683636</v>
+        <v>63.21747560808435</v>
       </c>
       <c r="G16">
-        <v>1.575188356587134</v>
+        <v>1.92352496048404</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>47.96821860547512</v>
       </c>
       <c r="L16">
-        <v>82.66740035186665</v>
+        <v>15.54371793768103</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>11.61410621827912</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.19559655954752</v>
+        <v>22.45967221115443</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>21.83587350395515</v>
+        <v>6.777692995248648</v>
       </c>
       <c r="E17">
-        <v>30.76974803375181</v>
+        <v>28.30310218435368</v>
       </c>
       <c r="F17">
-        <v>112.1888301683636</v>
+        <v>61.59359648394004</v>
       </c>
       <c r="G17">
-        <v>1.575188356587134</v>
+        <v>1.933245787790641</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>46.75484937033541</v>
       </c>
       <c r="L17">
-        <v>82.66740035186665</v>
+        <v>15.16049356512011</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>11.77097920111927</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.19559655954752</v>
+        <v>22.1445120271774</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>21.83587350395515</v>
+        <v>6.705997934449124</v>
       </c>
       <c r="E18">
-        <v>30.76974803375181</v>
+        <v>27.90292338403198</v>
       </c>
       <c r="F18">
-        <v>112.1888301683636</v>
+        <v>60.6608023145012</v>
       </c>
       <c r="G18">
-        <v>1.575188356587134</v>
+        <v>1.938787364017305</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>46.05428932178944</v>
       </c>
       <c r="L18">
-        <v>82.66740035186665</v>
+        <v>14.93898539450245</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>11.86098513992202</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.19559655954752</v>
+        <v>22.0374584789426</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>21.83587350395515</v>
+        <v>6.681986981179926</v>
       </c>
       <c r="E19">
-        <v>30.76974803375181</v>
+        <v>27.7674766338795</v>
       </c>
       <c r="F19">
-        <v>112.1888301683636</v>
+        <v>60.3450836248208</v>
       </c>
       <c r="G19">
-        <v>1.575188356587134</v>
+        <v>1.940656097557382</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>45.81656403679541</v>
       </c>
       <c r="L19">
-        <v>82.66740035186665</v>
+        <v>14.86378018112189</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>11.89142690596829</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.19559655954752</v>
+        <v>22.51784152622368</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>21.83587350395515</v>
+        <v>6.791090420821992</v>
       </c>
       <c r="E20">
-        <v>30.76974803375181</v>
+        <v>28.37720123445408</v>
       </c>
       <c r="F20">
-        <v>112.1888301683636</v>
+        <v>61.76631067784564</v>
       </c>
       <c r="G20">
-        <v>1.575188356587134</v>
+        <v>1.932216357082329</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>46.88427294719013</v>
       </c>
       <c r="L20">
-        <v>82.66740035186665</v>
+        <v>15.20139626043898</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>11.75430427141833</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.19559655954752</v>
+        <v>24.11078058915203</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>21.83587350395515</v>
+        <v>7.178011887351317</v>
       </c>
       <c r="E21">
-        <v>30.76974803375181</v>
+        <v>30.4374863903115</v>
       </c>
       <c r="F21">
-        <v>112.1888301683636</v>
+        <v>66.56443243765354</v>
       </c>
       <c r="G21">
-        <v>1.575188356587134</v>
+        <v>1.903187016737289</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>50.44567215942602</v>
       </c>
       <c r="L21">
-        <v>82.66740035186665</v>
+        <v>16.32436249732369</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>11.29047792152099</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.19559655954752</v>
+        <v>25.14033021069049</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21.83587350395515</v>
+        <v>7.503451089991843</v>
       </c>
       <c r="E22">
-        <v>30.76974803375181</v>
+        <v>31.80466796803778</v>
       </c>
       <c r="F22">
-        <v>112.1888301683636</v>
+        <v>69.73935715597865</v>
       </c>
       <c r="G22">
-        <v>1.575188356587134</v>
+        <v>1.883506263266296</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>52.76890739496387</v>
       </c>
       <c r="L22">
-        <v>82.66740035186665</v>
+        <v>17.05393874336867</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>10.9839366420195</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.19559655954752</v>
+        <v>24.5915826903814</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>21.83587350395515</v>
+        <v>7.302511295879934</v>
       </c>
       <c r="E23">
-        <v>30.76974803375181</v>
+        <v>31.07218910572914</v>
       </c>
       <c r="F23">
-        <v>112.1888301683636</v>
+        <v>68.03961306606394</v>
       </c>
       <c r="G23">
-        <v>1.575188356587134</v>
+        <v>1.894090457681271</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>51.52823677181762</v>
       </c>
       <c r="L23">
-        <v>82.66740035186665</v>
+        <v>16.66464229998496</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>11.14793039397177</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.19559655954752</v>
+        <v>22.49154959265078</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>21.83587350395515</v>
+        <v>6.785028564885372</v>
       </c>
       <c r="E24">
-        <v>30.76974803375181</v>
+        <v>28.34369992374611</v>
       </c>
       <c r="F24">
-        <v>112.1888301683636</v>
+        <v>61.6882243893689</v>
       </c>
       <c r="G24">
-        <v>1.575188356587134</v>
+        <v>1.93268190663246</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>46.82577001585843</v>
       </c>
       <c r="L24">
-        <v>82.66740035186665</v>
+        <v>15.18290790347626</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>11.76184356055261</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.19559655954752</v>
+        <v>20.31839720337697</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>21.83587350395515</v>
+        <v>6.287602276959595</v>
       </c>
       <c r="E25">
-        <v>30.76974803375181</v>
+        <v>25.41936076143739</v>
       </c>
       <c r="F25">
-        <v>112.1888301683636</v>
+        <v>54.87710361169136</v>
       </c>
       <c r="G25">
-        <v>1.575188356587134</v>
+        <v>1.972486723560215</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.38648365640933</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>13.67687565869743</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>41.64618059162937</v>
       </c>
       <c r="L25">
-        <v>82.66740035186665</v>
+        <v>13.54149217925773</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.41608513805407</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.75915939491468</v>
+        <v>24.049496897646</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.960671005721504</v>
+        <v>2.149711362276002</v>
       </c>
       <c r="E2">
-        <v>23.22790525260224</v>
+        <v>43.60892816179162</v>
       </c>
       <c r="F2">
-        <v>50.01172870398889</v>
+        <v>25.819365011373</v>
       </c>
       <c r="G2">
-        <v>2.001205796703674</v>
+        <v>38.53275369132533</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.691777735914238</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>37.66843114877352</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.27577919180833</v>
+        <v>17.73653429559893</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.897168854713</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.67424349977712</v>
+        <v>22.5194899911503</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.759226087685054</v>
+        <v>1.967413796775598</v>
       </c>
       <c r="E3">
-        <v>21.70064569947151</v>
+        <v>40.97779177310952</v>
       </c>
       <c r="F3">
-        <v>46.74319254141553</v>
+        <v>23.7801628950564</v>
       </c>
       <c r="G3">
-        <v>2.020648937916105</v>
+        <v>35.40263647222375</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.263857153229898</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>34.84448543765495</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>11.37504457677314</v>
+        <v>16.54104340800686</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.22537229578394</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.99432898699686</v>
+        <v>21.53861806309253</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.644338142385366</v>
+        <v>1.854227674755824</v>
       </c>
       <c r="E4">
-        <v>20.73785250386328</v>
+        <v>39.2897865602217</v>
       </c>
       <c r="F4">
-        <v>44.71570547236528</v>
+        <v>22.53405974063926</v>
       </c>
       <c r="G4">
-        <v>2.032666258751178</v>
+        <v>33.45695448181728</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.021718032278839</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>33.04061496484425</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>10.79889118861909</v>
+        <v>15.76976268104536</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.42868752777573</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.71391570598708</v>
+        <v>21.12850330383471</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.599588622186038</v>
+        <v>1.807705122469018</v>
       </c>
       <c r="E5">
-        <v>20.33871615819349</v>
+        <v>38.58383289107537</v>
       </c>
       <c r="F5">
-        <v>43.88404923082538</v>
+        <v>22.09383778255087</v>
       </c>
       <c r="G5">
-        <v>2.037594542749914</v>
+        <v>32.65811905978141</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.928164621553831</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>32.2870745728958</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>10.55805097863094</v>
+        <v>15.44597024522719</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.51208883546133</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.66715661610087</v>
+        <v>21.05977758149324</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.592278950084119</v>
+        <v>1.799953761303412</v>
       </c>
       <c r="E6">
-        <v>20.27201764186192</v>
+        <v>38.46552455862214</v>
       </c>
       <c r="F6">
-        <v>43.74562364401465</v>
+        <v>22.02084035566759</v>
       </c>
       <c r="G6">
-        <v>2.038415059970382</v>
+        <v>32.52511974716572</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.912937275238985</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>32.16081246803857</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>10.51768747049683</v>
+        <v>15.39162841917006</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.52597336751067</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.99056054667856</v>
+        <v>21.53312915792702</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.643726441186723</v>
+        <v>1.853601971707611</v>
       </c>
       <c r="E7">
-        <v>20.73249766867042</v>
+        <v>39.28033873912483</v>
       </c>
       <c r="F7">
-        <v>44.70451158803328</v>
+        <v>22.52811625971613</v>
       </c>
       <c r="G7">
-        <v>2.032732583551513</v>
+        <v>33.44620497350221</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.020435699193847</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>33.03052820903014</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>10.79566794355028</v>
+        <v>15.76543447326878</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.42980996354346</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.38798332865181</v>
+        <v>23.53054479477271</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.88929411877419</v>
+        <v>2.087063126233334</v>
       </c>
       <c r="E8">
-        <v>22.70617040976433</v>
+        <v>42.71680744041966</v>
       </c>
       <c r="F8">
-        <v>48.88874649194572</v>
+        <v>25.1204832801857</v>
       </c>
       <c r="G8">
-        <v>2.007900637989614</v>
+        <v>37.45834987052258</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.539920469869406</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>36.70870160826023</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>11.96984257835638</v>
+        <v>17.33197786190293</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.01002158151398</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.01868917327015</v>
+        <v>27.19529511437418</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.448351743022633</v>
+        <v>2.539144345753104</v>
       </c>
       <c r="E9">
-        <v>26.40741774215349</v>
+        <v>48.88008789292707</v>
       </c>
       <c r="F9">
-        <v>57.17606983580247</v>
+        <v>30.10387204347645</v>
       </c>
       <c r="G9">
-        <v>1.959224423173072</v>
+        <v>45.15178088641317</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.15465869234467</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>43.41238794260781</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>14.10215118023773</v>
+        <v>20.11519432816732</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.19617711681132</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.06621247419596</v>
+        <v>29.7928616645437</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.919915910348876</v>
+        <v>2.874577039558683</v>
       </c>
       <c r="E10">
-        <v>29.07951849914368</v>
+        <v>53.06454339131938</v>
       </c>
       <c r="F10">
-        <v>63.40301779419253</v>
+        <v>33.69697344670282</v>
       </c>
       <c r="G10">
-        <v>1.922408246444235</v>
+        <v>50.73953568792666</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.52225393532493</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>48.10636855060947</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>15.58731485898731</v>
+        <v>21.99515620509804</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.59617122114809</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.00832969903453</v>
+        <v>30.92863600794882</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.151956591365423</v>
+        <v>3.029721556857908</v>
       </c>
       <c r="E11">
-        <v>30.30305769398458</v>
+        <v>54.89722809030526</v>
       </c>
       <c r="F11">
-        <v>66.25175751423686</v>
+        <v>35.32628638739897</v>
       </c>
       <c r="G11">
-        <v>1.905104565001186</v>
+        <v>53.28302827522579</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13.1467833967319</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>50.21549940536332</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>16.25194472150518</v>
+        <v>22.81762820668591</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.32070769003146</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.3630199605087</v>
+        <v>31.35251631130983</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.242853303131273</v>
+        <v>3.089023477144965</v>
       </c>
       <c r="E12">
-        <v>30.76966686077111</v>
+        <v>55.5814773476227</v>
       </c>
       <c r="F12">
-        <v>67.33672987590114</v>
+        <v>35.94359323216784</v>
       </c>
       <c r="G12">
-        <v>1.898434984383115</v>
+        <v>54.24817702460306</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13.38403991485069</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>51.0131121768976</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>16.50279135498267</v>
+        <v>23.12466998217226</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.21583194628004</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.28670864958122</v>
+        <v>31.26149568197966</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.223132475849869</v>
+        <v>3.076223896180273</v>
       </c>
       <c r="E13">
-        <v>30.66898690060994</v>
+        <v>55.43453732502268</v>
       </c>
       <c r="F13">
-        <v>67.10270902410765</v>
+        <v>35.8106110435924</v>
       </c>
       <c r="G13">
-        <v>1.899877315222558</v>
+        <v>54.04019421348404</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.33290084030246</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>50.84132803308936</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>16.44878999450935</v>
+        <v>23.05873396923507</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.23844744355751</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.03754663151664</v>
+        <v>30.96363100392946</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.15937052187435</v>
+        <v>3.034588121468774</v>
       </c>
       <c r="E14">
-        <v>30.34136549326998</v>
+        <v>54.95371412493573</v>
       </c>
       <c r="F14">
-        <v>66.34086729463375</v>
+        <v>35.37705910124495</v>
       </c>
       <c r="G14">
-        <v>1.904558452599644</v>
+        <v>53.36238031762876</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.16628461325469</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>50.28112265712254</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>16.27259372596529</v>
+        <v>22.84297524462908</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.31209206668783</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.8846843753916</v>
+        <v>30.78038357278625</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.120726726647606</v>
+        <v>3.009162943400454</v>
       </c>
       <c r="E15">
-        <v>30.1411900458226</v>
+        <v>54.65794153198524</v>
       </c>
       <c r="F15">
-        <v>65.87516438489007</v>
+        <v>35.11157401673955</v>
       </c>
       <c r="G15">
-        <v>1.907409252909224</v>
+        <v>52.94751736353516</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>13.06434064048855</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>49.93793473545834</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>16.16458543101344</v>
+        <v>22.71025201751266</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.35712158542202</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.00430760490313</v>
+        <v>29.71774457888784</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.905143967395939</v>
+        <v>2.864504451857481</v>
       </c>
       <c r="E16">
-        <v>28.99988581693987</v>
+        <v>52.94338237725287</v>
       </c>
       <c r="F16">
-        <v>63.21747560808435</v>
+        <v>33.59047500061973</v>
       </c>
       <c r="G16">
-        <v>1.92352496048404</v>
+        <v>50.57348498690344</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.48152086016506</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>47.96821860547512</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>15.54371793768103</v>
+        <v>21.94077135328368</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.61410621827912</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.45967221115443</v>
+        <v>29.05435652504063</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.777692995248648</v>
+        <v>2.776537103328957</v>
       </c>
       <c r="E17">
-        <v>28.30310218435368</v>
+        <v>51.87368619286715</v>
       </c>
       <c r="F17">
-        <v>61.59359648394004</v>
+        <v>32.65668000950129</v>
       </c>
       <c r="G17">
-        <v>1.933245787790641</v>
+        <v>49.11862004348546</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.12485726319998</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>46.75484937033541</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>15.16049356512011</v>
+        <v>21.46053302722262</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.77097920111927</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.1445120271774</v>
+        <v>28.66844953929778</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.705997934449124</v>
+        <v>2.726168304191499</v>
       </c>
       <c r="E18">
-        <v>27.90292338403198</v>
+        <v>51.2517238213052</v>
       </c>
       <c r="F18">
-        <v>60.6608023145012</v>
+        <v>32.11901754626367</v>
       </c>
       <c r="G18">
-        <v>1.938787364017305</v>
+        <v>48.28184182156258</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.91990904847559</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>46.05428932178944</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>14.93898539450245</v>
+        <v>21.18121148403397</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.86098513992202</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.0374584789426</v>
+        <v>28.53703124939052</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.681986981179926</v>
+        <v>2.70914828006579</v>
       </c>
       <c r="E19">
-        <v>27.7674766338795</v>
+        <v>51.03997560693039</v>
       </c>
       <c r="F19">
-        <v>60.3450836248208</v>
+        <v>31.93684810242957</v>
       </c>
       <c r="G19">
-        <v>1.940656097557382</v>
+        <v>47.9984800784932</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.85053972838448</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>45.81656403679541</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>14.86378018112189</v>
+        <v>21.08609709255488</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.89142690596829</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.51784152622368</v>
+        <v>29.12542227673972</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.791090420821992</v>
+        <v>2.78587657545956</v>
       </c>
       <c r="E20">
-        <v>28.37720123445408</v>
+        <v>51.98824794440571</v>
       </c>
       <c r="F20">
-        <v>61.76631067784564</v>
+        <v>32.75613594169321</v>
       </c>
       <c r="G20">
-        <v>1.932216357082329</v>
+        <v>49.27347928527877</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.16280184000136</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>46.88427294719013</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>15.20139626043898</v>
+        <v>21.51197417528356</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.75430427141833</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.11078058915203</v>
+        <v>31.0512863462812</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.178011887351317</v>
+        <v>3.04680093847733</v>
       </c>
       <c r="E21">
-        <v>30.4374863903115</v>
+        <v>55.09520403622332</v>
       </c>
       <c r="F21">
-        <v>66.56443243765354</v>
+        <v>35.50438528085053</v>
       </c>
       <c r="G21">
-        <v>1.903187016737289</v>
+        <v>53.56140074946207</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13.21519933134545</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>50.44567215942602</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>16.32436249732369</v>
+        <v>22.90646591398332</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.29047792152099</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.14033021069049</v>
+        <v>32.27395934012167</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.503451089991843</v>
+        <v>3.22065906372655</v>
       </c>
       <c r="E22">
-        <v>31.80466796803778</v>
+        <v>57.06924944618103</v>
       </c>
       <c r="F22">
-        <v>69.73935715597865</v>
+        <v>37.30308962573826</v>
       </c>
       <c r="G22">
-        <v>1.883506263266296</v>
+        <v>56.37650288422736</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.90771212744847</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>52.76890739496387</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>17.05393874336867</v>
+        <v>23.79231270697471</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.9839366420195</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.5915826903814</v>
+        <v>31.62454631920068</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.302511295879934</v>
+        <v>3.127493041125059</v>
       </c>
       <c r="E23">
-        <v>31.07218910572914</v>
+        <v>56.02065971737438</v>
       </c>
       <c r="F23">
-        <v>68.03961306606394</v>
+        <v>36.34242936624736</v>
       </c>
       <c r="G23">
-        <v>1.894090457681271</v>
+        <v>54.87217274816839</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.53750703222553</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>51.52823677181762</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>16.66464229998496</v>
+        <v>23.3217451553916</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.14793039397177</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.49154959265078</v>
+        <v>29.09330754600117</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.785028564885372</v>
+        <v>2.781653575617159</v>
       </c>
       <c r="E24">
-        <v>28.34369992374611</v>
+        <v>51.93647634825662</v>
       </c>
       <c r="F24">
-        <v>61.6882243893689</v>
+        <v>32.7111745188696</v>
       </c>
       <c r="G24">
-        <v>1.93268190663246</v>
+        <v>49.20346866031173</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.14564680756177</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>46.82577001585843</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>15.18290790347626</v>
+        <v>21.48872770258737</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.76184356055261</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.31839720337697</v>
+        <v>26.19578380105632</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.287602276959595</v>
+        <v>2.416815638316356</v>
       </c>
       <c r="E25">
-        <v>25.41936076143739</v>
+        <v>47.27402140558474</v>
       </c>
       <c r="F25">
-        <v>54.87710361169136</v>
+        <v>28.77026599666933</v>
       </c>
       <c r="G25">
-        <v>1.972486723560215</v>
+        <v>43.08598620153031</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.65097076993649</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>41.64618059162937</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>13.54149217925773</v>
+        <v>19.39212412211551</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.41608513805407</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.049496897646</v>
+        <v>19.81818561421435</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.149711362276002</v>
+        <v>3.40469112619871</v>
       </c>
       <c r="E2">
-        <v>43.60892816179162</v>
+        <v>29.66130923871608</v>
       </c>
       <c r="F2">
-        <v>25.819365011373</v>
+        <v>22.59753965086227</v>
       </c>
       <c r="G2">
-        <v>38.53275369132533</v>
+        <v>27.38955477987595</v>
       </c>
       <c r="H2">
-        <v>9.691777735914238</v>
+        <v>12.8946362081942</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.73653429559893</v>
+        <v>12.43222193316058</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.5194899911503</v>
+        <v>19.29738277604039</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.967413796775598</v>
+        <v>3.454813411382561</v>
       </c>
       <c r="E3">
-        <v>40.97779177310952</v>
+        <v>28.47873392376783</v>
       </c>
       <c r="F3">
-        <v>23.7801628950564</v>
+        <v>22.43358088938869</v>
       </c>
       <c r="G3">
-        <v>35.40263647222375</v>
+        <v>26.90633163319794</v>
       </c>
       <c r="H3">
-        <v>9.263857153229898</v>
+        <v>12.94907333789256</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.54104340800686</v>
+        <v>11.95749511381063</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.53861806309253</v>
+        <v>18.9720676584672</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.854227674755824</v>
+        <v>3.487086607094113</v>
       </c>
       <c r="E4">
-        <v>39.2897865602217</v>
+        <v>27.72841178618647</v>
       </c>
       <c r="F4">
-        <v>22.53405974063926</v>
+        <v>22.34926239252703</v>
       </c>
       <c r="G4">
-        <v>33.45695448181728</v>
+        <v>26.63284226854571</v>
       </c>
       <c r="H4">
-        <v>9.021718032278839</v>
+        <v>12.98922935257285</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.76976268104536</v>
+        <v>11.65612534047784</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.12850330383471</v>
+        <v>18.83827881030411</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.807705122469018</v>
+        <v>3.500615369930876</v>
       </c>
       <c r="E5">
-        <v>38.58383289107537</v>
+        <v>27.41697770047072</v>
       </c>
       <c r="F5">
-        <v>22.09383778255087</v>
+        <v>22.31902890305325</v>
       </c>
       <c r="G5">
-        <v>32.65811905978141</v>
+        <v>26.52742481061743</v>
       </c>
       <c r="H5">
-        <v>8.928164621553831</v>
+        <v>13.00726514075566</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.44597024522719</v>
+        <v>11.53097836979621</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.05977758149324</v>
+        <v>18.81599481633678</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.799953761303412</v>
+        <v>3.502884607632663</v>
       </c>
       <c r="E6">
-        <v>38.46552455862214</v>
+        <v>27.3649349628025</v>
       </c>
       <c r="F6">
-        <v>22.02084035566759</v>
+        <v>22.31425809082296</v>
       </c>
       <c r="G6">
-        <v>32.52511974716572</v>
+        <v>26.51028975793055</v>
       </c>
       <c r="H6">
-        <v>8.912937275238985</v>
+        <v>13.01036032448364</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.39162841917006</v>
+        <v>11.51006141492743</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.53312915792702</v>
+        <v>18.97026804053109</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.853601971707611</v>
+        <v>3.48726753280337</v>
       </c>
       <c r="E7">
-        <v>39.28033873912483</v>
+        <v>27.72423405231213</v>
       </c>
       <c r="F7">
-        <v>22.52811625971613</v>
+        <v>22.34883793309862</v>
       </c>
       <c r="G7">
-        <v>33.44620497350221</v>
+        <v>26.63139591297674</v>
       </c>
       <c r="H7">
-        <v>9.020435699193847</v>
+        <v>12.98946584810733</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.76543447326878</v>
+        <v>11.65444681403473</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.53054479477271</v>
+        <v>19.63986314910195</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.087063126233334</v>
+        <v>3.421662685088204</v>
       </c>
       <c r="E8">
-        <v>42.71680744041966</v>
+        <v>29.2588182590984</v>
       </c>
       <c r="F8">
-        <v>25.1204832801857</v>
+        <v>22.53762567331855</v>
       </c>
       <c r="G8">
-        <v>37.45834987052258</v>
+        <v>27.21824728849541</v>
       </c>
       <c r="H8">
-        <v>9.539920469869406</v>
+        <v>12.91199678476945</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.33197786190293</v>
+        <v>12.27067218990298</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.19529511437418</v>
+        <v>20.90192000528388</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.539144345753104</v>
+        <v>3.30487696583143</v>
       </c>
       <c r="E9">
-        <v>48.88008789292707</v>
+        <v>32.06014332775068</v>
       </c>
       <c r="F9">
-        <v>30.10387204347645</v>
+        <v>23.03627513159852</v>
       </c>
       <c r="G9">
-        <v>45.15178088641317</v>
+        <v>28.54336564170821</v>
       </c>
       <c r="H9">
-        <v>11.15465869234467</v>
+        <v>12.8143762006081</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.11519432816732</v>
+        <v>13.39494665858717</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.7928616645437</v>
+        <v>21.789381463241</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.874577039558683</v>
+        <v>3.226285454446914</v>
       </c>
       <c r="E10">
-        <v>53.06454339131938</v>
+        <v>33.97346305386724</v>
       </c>
       <c r="F10">
-        <v>33.69697344670282</v>
+        <v>23.4782738122234</v>
       </c>
       <c r="G10">
-        <v>50.73953568792666</v>
+        <v>29.60858305725608</v>
       </c>
       <c r="H10">
-        <v>12.52225393532493</v>
+        <v>12.77689444673939</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.99515620509804</v>
+        <v>14.16313150691924</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.92863600794882</v>
+        <v>22.18286811910625</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.029721556857908</v>
+        <v>3.192095721532263</v>
       </c>
       <c r="E11">
-        <v>54.89722809030526</v>
+        <v>34.80944764243413</v>
       </c>
       <c r="F11">
-        <v>35.32628638739897</v>
+        <v>23.69496923578401</v>
       </c>
       <c r="G11">
-        <v>53.28302827522579</v>
+        <v>30.10973084701969</v>
       </c>
       <c r="H11">
-        <v>13.1467833967319</v>
+        <v>12.76749786614496</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.81762820668591</v>
+        <v>14.49895109941989</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.35251631130983</v>
+        <v>22.33028229028006</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.089023477144965</v>
+        <v>3.179373702217696</v>
       </c>
       <c r="E12">
-        <v>55.5814773476227</v>
+        <v>35.12086509375368</v>
       </c>
       <c r="F12">
-        <v>35.94359323216784</v>
+        <v>23.77919188827813</v>
       </c>
       <c r="G12">
-        <v>54.24817702460306</v>
+        <v>30.30160185692709</v>
       </c>
       <c r="H12">
-        <v>13.38403991485069</v>
+        <v>12.76505636153309</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.12466998217226</v>
+        <v>14.62408241897254</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.26149568197966</v>
+        <v>22.29860655798972</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.076223896180273</v>
+        <v>3.182103608280733</v>
       </c>
       <c r="E13">
-        <v>55.43453732502268</v>
+        <v>35.05402785325231</v>
       </c>
       <c r="F13">
-        <v>35.8106110435924</v>
+        <v>23.76095815264069</v>
       </c>
       <c r="G13">
-        <v>54.04019421348404</v>
+        <v>30.26019025937583</v>
       </c>
       <c r="H13">
-        <v>13.33290084030246</v>
+        <v>12.76553227281804</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.05873396923507</v>
+        <v>14.59722480914326</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.96363100392946</v>
+        <v>22.19502850220156</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.034588121468774</v>
+        <v>3.191044563982689</v>
       </c>
       <c r="E14">
-        <v>54.95371412493573</v>
+        <v>34.83517246291527</v>
       </c>
       <c r="F14">
-        <v>35.37705910124495</v>
+        <v>23.70185539976843</v>
       </c>
       <c r="G14">
-        <v>53.36238031762876</v>
+        <v>30.12547579056278</v>
       </c>
       <c r="H14">
-        <v>13.16628461325469</v>
+        <v>12.76727453297978</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.84297524462908</v>
+        <v>14.50928693502344</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.78038357278625</v>
+        <v>22.13137341130666</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.009162943400454</v>
+        <v>3.196550456196189</v>
       </c>
       <c r="E15">
-        <v>54.65794153198524</v>
+        <v>34.70044072021328</v>
       </c>
       <c r="F15">
-        <v>35.11157401673955</v>
+        <v>23.66593258944826</v>
       </c>
       <c r="G15">
-        <v>52.94751736353516</v>
+        <v>30.04322394885791</v>
       </c>
       <c r="H15">
-        <v>13.06434064048855</v>
+        <v>12.76848760902199</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.71025201751266</v>
+        <v>14.45515519570118</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.71774457888784</v>
+        <v>21.76344989826585</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.864504451857481</v>
+        <v>3.22855128477479</v>
       </c>
       <c r="E16">
-        <v>52.94338237725287</v>
+        <v>33.91811907758635</v>
       </c>
       <c r="F16">
-        <v>33.59047500061973</v>
+        <v>23.46441987237533</v>
       </c>
       <c r="G16">
-        <v>50.57348498690344</v>
+        <v>29.57614089824757</v>
       </c>
       <c r="H16">
-        <v>12.48152086016506</v>
+        <v>12.77766396626772</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.94077135328368</v>
+        <v>14.14090384732088</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.05435652504063</v>
+        <v>21.53503285783881</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.776537103328957</v>
+        <v>3.248582958428345</v>
       </c>
       <c r="E17">
-        <v>51.87368619286715</v>
+        <v>33.42922433260612</v>
       </c>
       <c r="F17">
-        <v>32.65668000950129</v>
+        <v>23.34474507866216</v>
       </c>
       <c r="G17">
-        <v>49.11862004348546</v>
+        <v>29.29364184755022</v>
       </c>
       <c r="H17">
-        <v>12.12485726319998</v>
+        <v>12.78526568028849</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.46053302722262</v>
+        <v>13.94457174610987</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.66844953929778</v>
+        <v>21.40269757041039</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.726168304191499</v>
+        <v>3.260251637685924</v>
       </c>
       <c r="E18">
-        <v>51.2517238213052</v>
+        <v>33.14479785249047</v>
       </c>
       <c r="F18">
-        <v>32.11901754626367</v>
+        <v>23.27738780634647</v>
       </c>
       <c r="G18">
-        <v>48.28184182156258</v>
+        <v>29.13273318630036</v>
       </c>
       <c r="H18">
-        <v>11.91990904847559</v>
+        <v>12.79035754375469</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.18121148403397</v>
+        <v>13.83036744229516</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.53703124939052</v>
+        <v>21.35773080192313</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.70914828006579</v>
+        <v>3.264227691647097</v>
       </c>
       <c r="E19">
-        <v>51.03997560693039</v>
+        <v>33.04794845804581</v>
       </c>
       <c r="F19">
-        <v>31.93684810242957</v>
+        <v>23.25483775648342</v>
       </c>
       <c r="G19">
-        <v>47.9984800784932</v>
+        <v>29.07853192762685</v>
       </c>
       <c r="H19">
-        <v>11.85053972838448</v>
+        <v>12.79220463112074</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.08609709255488</v>
+        <v>13.79148261308664</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.12542227673972</v>
+        <v>21.55944807632003</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.78587657545956</v>
+        <v>3.246435338087229</v>
       </c>
       <c r="E20">
-        <v>51.98824794440571</v>
+        <v>33.48160360155494</v>
       </c>
       <c r="F20">
-        <v>32.75613594169321</v>
+        <v>23.35733242330853</v>
       </c>
       <c r="G20">
-        <v>49.27347928527877</v>
+        <v>29.32355318623971</v>
       </c>
       <c r="H20">
-        <v>12.16280184000136</v>
+        <v>12.78438187187856</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.51197417528356</v>
+        <v>13.96560461954419</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.0512863462812</v>
+        <v>22.22549596404688</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.04680093847733</v>
+        <v>3.188412281987718</v>
       </c>
       <c r="E21">
-        <v>55.09520403622332</v>
+        <v>34.8995969024213</v>
       </c>
       <c r="F21">
-        <v>35.50438528085053</v>
+        <v>23.71915725673366</v>
       </c>
       <c r="G21">
-        <v>53.56140074946207</v>
+        <v>30.16499004759664</v>
       </c>
       <c r="H21">
-        <v>13.21519933134545</v>
+        <v>12.76673235854323</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.90646591398332</v>
+        <v>14.53517223596682</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.27395934012167</v>
+        <v>22.65147686429621</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.22065906372655</v>
+        <v>3.15180194885151</v>
       </c>
       <c r="E22">
-        <v>57.06924944618103</v>
+        <v>35.79623451195182</v>
       </c>
       <c r="F22">
-        <v>37.30308962573826</v>
+        <v>23.96820508838115</v>
       </c>
       <c r="G22">
-        <v>56.37650288422736</v>
+        <v>30.72701159340314</v>
       </c>
       <c r="H22">
-        <v>13.90771212744847</v>
+        <v>12.76171325055488</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.79231270697471</v>
+        <v>14.89552086890625</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.62454631920068</v>
+        <v>22.42501257589694</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.127493041125059</v>
+        <v>3.171221469585658</v>
       </c>
       <c r="E23">
-        <v>56.02065971737438</v>
+        <v>35.32049681001573</v>
       </c>
       <c r="F23">
-        <v>36.34242936624736</v>
+        <v>23.83416230680858</v>
       </c>
       <c r="G23">
-        <v>54.87217274816839</v>
+        <v>30.4260373068973</v>
       </c>
       <c r="H23">
-        <v>13.53750703222553</v>
+        <v>12.76379088928704</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.3217451553916</v>
+        <v>14.7043069203792</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.09330754600117</v>
+        <v>21.54841310918005</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.781653575617159</v>
+        <v>3.247405803183909</v>
       </c>
       <c r="E24">
-        <v>51.93647634825662</v>
+        <v>33.45793336625693</v>
       </c>
       <c r="F24">
-        <v>32.7111745188696</v>
+        <v>23.3516371766549</v>
       </c>
       <c r="G24">
-        <v>49.20346866031173</v>
+        <v>29.31002556424174</v>
       </c>
       <c r="H24">
-        <v>12.14564680756177</v>
+        <v>12.78477919547466</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.48872770258737</v>
+        <v>13.95609979536262</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19578380105632</v>
+        <v>20.56690110660978</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.416815638316356</v>
+        <v>3.335203121139938</v>
       </c>
       <c r="E25">
-        <v>47.27402140558474</v>
+        <v>31.32660251772367</v>
       </c>
       <c r="F25">
-        <v>28.77026599666933</v>
+        <v>22.88785489944406</v>
       </c>
       <c r="G25">
-        <v>43.08598620153031</v>
+        <v>28.16767716871809</v>
       </c>
       <c r="H25">
-        <v>10.65097076993649</v>
+        <v>12.83485046191471</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.39212412211551</v>
+        <v>13.10053965242146</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.81818561421435</v>
+        <v>24.049496897646</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.40469112619871</v>
+        <v>2.149711362275934</v>
       </c>
       <c r="E2">
-        <v>29.66130923871608</v>
+        <v>43.60892816179168</v>
       </c>
       <c r="F2">
-        <v>22.59753965086227</v>
+        <v>25.81936501137301</v>
       </c>
       <c r="G2">
-        <v>27.38955477987595</v>
+        <v>38.5327536913254</v>
       </c>
       <c r="H2">
-        <v>12.8946362081942</v>
+        <v>9.691777735914227</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.43222193316058</v>
+        <v>17.73653429559894</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.29738277604039</v>
+        <v>22.51948999115024</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.454813411382561</v>
+        <v>1.967413796775475</v>
       </c>
       <c r="E3">
-        <v>28.47873392376783</v>
+        <v>40.97779177310961</v>
       </c>
       <c r="F3">
-        <v>22.43358088938869</v>
+        <v>23.78016289505636</v>
       </c>
       <c r="G3">
-        <v>26.90633163319794</v>
+        <v>35.40263647222369</v>
       </c>
       <c r="H3">
-        <v>12.94907333789256</v>
+        <v>9.263857153229878</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.95749511381063</v>
+        <v>16.54104340800686</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.9720676584672</v>
+        <v>21.53861806309256</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.487086607094113</v>
+        <v>1.854227674755942</v>
       </c>
       <c r="E4">
-        <v>27.72841178618647</v>
+        <v>39.28978656022185</v>
       </c>
       <c r="F4">
-        <v>22.34926239252703</v>
+        <v>22.53405974063922</v>
       </c>
       <c r="G4">
-        <v>26.63284226854571</v>
+        <v>33.45695448181718</v>
       </c>
       <c r="H4">
-        <v>12.98922935257285</v>
+        <v>9.021718032278825</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.65612534047784</v>
+        <v>15.76976268104538</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.83827881030411</v>
+        <v>21.12850330383477</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.500615369930876</v>
+        <v>1.807705122468916</v>
       </c>
       <c r="E5">
-        <v>27.41697770047072</v>
+        <v>38.58383289107547</v>
       </c>
       <c r="F5">
-        <v>22.31902890305325</v>
+        <v>22.09383778255081</v>
       </c>
       <c r="G5">
-        <v>26.52742481061743</v>
+        <v>32.65811905978126</v>
       </c>
       <c r="H5">
-        <v>13.00726514075566</v>
+        <v>8.928164621553801</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.53097836979621</v>
+        <v>15.44597024522719</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.81599481633678</v>
+        <v>21.05977758149315</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.502884607632663</v>
+        <v>1.799953761303281</v>
       </c>
       <c r="E6">
-        <v>27.3649349628025</v>
+        <v>38.4655245586221</v>
       </c>
       <c r="F6">
-        <v>22.31425809082296</v>
+        <v>22.02084035566764</v>
       </c>
       <c r="G6">
-        <v>26.51028975793055</v>
+        <v>32.52511974716591</v>
       </c>
       <c r="H6">
-        <v>13.01036032448364</v>
+        <v>8.912937275238997</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.51006141492743</v>
+        <v>15.39162841917004</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.97026804053109</v>
+        <v>21.53312915792701</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.48726753280337</v>
+        <v>1.853601971707592</v>
       </c>
       <c r="E7">
-        <v>27.72423405231213</v>
+        <v>39.2803387391246</v>
       </c>
       <c r="F7">
-        <v>22.34883793309862</v>
+        <v>22.52811625971623</v>
       </c>
       <c r="G7">
-        <v>26.63139591297674</v>
+        <v>33.44620497350238</v>
       </c>
       <c r="H7">
-        <v>12.98946584810733</v>
+        <v>9.020435699193886</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.65444681403473</v>
+        <v>15.76543447326875</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.63986314910195</v>
+        <v>23.53054479477269</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.421662685088204</v>
+        <v>2.087063126233334</v>
       </c>
       <c r="E8">
-        <v>29.2588182590984</v>
+        <v>42.71680744041987</v>
       </c>
       <c r="F8">
-        <v>22.53762567331855</v>
+        <v>25.1204832801857</v>
       </c>
       <c r="G8">
-        <v>27.21824728849541</v>
+        <v>37.45834987052268</v>
       </c>
       <c r="H8">
-        <v>12.91199678476945</v>
+        <v>9.539920469869376</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.27067218990298</v>
+        <v>17.33197786190301</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.90192000528388</v>
+        <v>27.19529511437421</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.30487696583143</v>
+        <v>2.539144345753039</v>
       </c>
       <c r="E9">
-        <v>32.06014332775068</v>
+        <v>48.88008789292699</v>
       </c>
       <c r="F9">
-        <v>23.03627513159852</v>
+        <v>30.10387204347647</v>
       </c>
       <c r="G9">
-        <v>28.54336564170821</v>
+        <v>45.15178088641314</v>
       </c>
       <c r="H9">
-        <v>12.8143762006081</v>
+        <v>11.15465869234471</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.39494665858717</v>
+        <v>20.11519432816731</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.789381463241</v>
+        <v>29.79286166454373</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.226285454446914</v>
+        <v>2.874577039558746</v>
       </c>
       <c r="E10">
-        <v>33.97346305386724</v>
+        <v>53.06454339131945</v>
       </c>
       <c r="F10">
-        <v>23.4782738122234</v>
+        <v>33.69697344670284</v>
       </c>
       <c r="G10">
-        <v>29.60858305725608</v>
+        <v>50.7395356879267</v>
       </c>
       <c r="H10">
-        <v>12.77689444673939</v>
+        <v>12.52225393532498</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.16313150691924</v>
+        <v>21.99515620509806</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.18286811910625</v>
+        <v>30.92863600794876</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.192095721532263</v>
+        <v>3.029721556857903</v>
       </c>
       <c r="E11">
-        <v>34.80944764243413</v>
+        <v>54.89722809030522</v>
       </c>
       <c r="F11">
-        <v>23.69496923578401</v>
+        <v>35.32628638739905</v>
       </c>
       <c r="G11">
-        <v>30.10973084701969</v>
+        <v>53.28302827522587</v>
       </c>
       <c r="H11">
-        <v>12.76749786614496</v>
+        <v>13.14678339673194</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.49895109941989</v>
+        <v>22.8176282066859</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.33028229028006</v>
+        <v>31.35251631130984</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.179373702217696</v>
+        <v>3.0890234771449</v>
       </c>
       <c r="E12">
-        <v>35.12086509375368</v>
+        <v>55.58147734762284</v>
       </c>
       <c r="F12">
-        <v>23.77919188827813</v>
+        <v>35.9435932321678</v>
       </c>
       <c r="G12">
-        <v>30.30160185692709</v>
+        <v>54.24817702460302</v>
       </c>
       <c r="H12">
-        <v>12.76505636153309</v>
+        <v>13.38403991485069</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.62408241897254</v>
+        <v>23.12466998217227</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.29860655798972</v>
+        <v>31.26149568197965</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.182103608280733</v>
+        <v>3.076223896180033</v>
       </c>
       <c r="E13">
-        <v>35.05402785325231</v>
+        <v>55.43453732502278</v>
       </c>
       <c r="F13">
-        <v>23.76095815264069</v>
+        <v>35.81061104359236</v>
       </c>
       <c r="G13">
-        <v>30.26019025937583</v>
+        <v>54.04019421348386</v>
       </c>
       <c r="H13">
-        <v>12.76553227281804</v>
+        <v>13.33290084030245</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.59722480914326</v>
+        <v>23.05873396923512</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.19502850220156</v>
+        <v>30.96363100392946</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.191044563982689</v>
+        <v>3.034588121469015</v>
       </c>
       <c r="E14">
-        <v>34.83517246291527</v>
+        <v>54.95371412493564</v>
       </c>
       <c r="F14">
-        <v>23.70185539976843</v>
+        <v>35.37705910124478</v>
       </c>
       <c r="G14">
-        <v>30.12547579056278</v>
+        <v>53.36238031762858</v>
       </c>
       <c r="H14">
-        <v>12.76727453297978</v>
+        <v>13.16628461325464</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.50928693502344</v>
+        <v>22.84297524462906</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.13137341130666</v>
+        <v>30.78038357278615</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.196550456196189</v>
+        <v>3.009162943400397</v>
       </c>
       <c r="E15">
-        <v>34.70044072021328</v>
+        <v>54.65794153198505</v>
       </c>
       <c r="F15">
-        <v>23.66593258944826</v>
+        <v>35.11157401673944</v>
       </c>
       <c r="G15">
-        <v>30.04322394885791</v>
+        <v>52.94751736353491</v>
       </c>
       <c r="H15">
-        <v>12.76848760902199</v>
+        <v>13.06434064048848</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.45515519570118</v>
+        <v>22.71025201751256</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.76344989826585</v>
+        <v>29.7177445788879</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.22855128477479</v>
+        <v>2.864504451857428</v>
       </c>
       <c r="E16">
-        <v>33.91811907758635</v>
+        <v>52.94338237725304</v>
       </c>
       <c r="F16">
-        <v>23.46441987237533</v>
+        <v>33.59047500061967</v>
       </c>
       <c r="G16">
-        <v>29.57614089824757</v>
+        <v>50.57348498690337</v>
       </c>
       <c r="H16">
-        <v>12.77766396626772</v>
+        <v>12.48152086016502</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.14090384732088</v>
+        <v>21.9407713532837</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.53503285783881</v>
+        <v>29.05435652504067</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.248582958428345</v>
+        <v>2.776537103328968</v>
       </c>
       <c r="E17">
-        <v>33.42922433260612</v>
+        <v>51.87368619286731</v>
       </c>
       <c r="F17">
-        <v>23.34474507866216</v>
+        <v>32.65668000950123</v>
       </c>
       <c r="G17">
-        <v>29.29364184755022</v>
+        <v>49.11862004348531</v>
       </c>
       <c r="H17">
-        <v>12.78526568028849</v>
+        <v>12.12485726319996</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.94457174610987</v>
+        <v>21.46053302722265</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.40269757041039</v>
+        <v>28.66844953929773</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.260251637685924</v>
+        <v>2.726168304191384</v>
       </c>
       <c r="E18">
-        <v>33.14479785249047</v>
+        <v>51.2517238213053</v>
       </c>
       <c r="F18">
-        <v>23.27738780634647</v>
+        <v>32.1190175462637</v>
       </c>
       <c r="G18">
-        <v>29.13273318630036</v>
+        <v>48.28184182156255</v>
       </c>
       <c r="H18">
-        <v>12.79035754375469</v>
+        <v>11.91990904847558</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.83036744229516</v>
+        <v>21.18121148403396</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.35773080192313</v>
+        <v>28.53703124939051</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.264227691647097</v>
+        <v>2.709148280065726</v>
       </c>
       <c r="E19">
-        <v>33.04794845804581</v>
+        <v>51.03997560693035</v>
       </c>
       <c r="F19">
-        <v>23.25483775648342</v>
+        <v>31.9368481024297</v>
       </c>
       <c r="G19">
-        <v>29.07853192762685</v>
+        <v>47.99848007849338</v>
       </c>
       <c r="H19">
-        <v>12.79220463112074</v>
+        <v>11.85053972838455</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.79148261308664</v>
+        <v>21.08609709255485</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.55944807632003</v>
+        <v>29.1254222767397</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.246435338087229</v>
+        <v>2.785876575459561</v>
       </c>
       <c r="E20">
-        <v>33.48160360155494</v>
+        <v>51.98824794440575</v>
       </c>
       <c r="F20">
-        <v>23.35733242330853</v>
+        <v>32.7561359416933</v>
       </c>
       <c r="G20">
-        <v>29.32355318623971</v>
+        <v>49.27347928527893</v>
       </c>
       <c r="H20">
-        <v>12.78438187187856</v>
+        <v>12.16280184000139</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.96560461954419</v>
+        <v>21.51197417528352</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.22549596404688</v>
+        <v>31.05128634628122</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.188412281987718</v>
+        <v>3.046800938477268</v>
       </c>
       <c r="E21">
-        <v>34.8995969024213</v>
+        <v>55.09520403622334</v>
       </c>
       <c r="F21">
-        <v>23.71915725673366</v>
+        <v>35.50438528085059</v>
       </c>
       <c r="G21">
-        <v>30.16499004759664</v>
+        <v>53.56140074946215</v>
       </c>
       <c r="H21">
-        <v>12.76673235854323</v>
+        <v>13.21519933134548</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.53517223596682</v>
+        <v>22.90646591398336</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.65147686429621</v>
+        <v>32.27395934012171</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.15180194885151</v>
+        <v>3.220659063726543</v>
       </c>
       <c r="E22">
-        <v>35.79623451195182</v>
+        <v>57.06924944618099</v>
       </c>
       <c r="F22">
-        <v>23.96820508838115</v>
+        <v>37.30308962573849</v>
       </c>
       <c r="G22">
-        <v>30.72701159340314</v>
+        <v>56.37650288422774</v>
       </c>
       <c r="H22">
-        <v>12.76171325055488</v>
+        <v>13.90771212744858</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.89552086890625</v>
+        <v>23.79231270697469</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.42501257589694</v>
+        <v>31.62454631920077</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.171221469585658</v>
+        <v>3.127493041125005</v>
       </c>
       <c r="E23">
-        <v>35.32049681001573</v>
+        <v>56.02065971737463</v>
       </c>
       <c r="F23">
-        <v>23.83416230680858</v>
+        <v>36.34242936624729</v>
       </c>
       <c r="G23">
-        <v>30.4260373068973</v>
+        <v>54.87217274816844</v>
       </c>
       <c r="H23">
-        <v>12.76379088928704</v>
+        <v>13.53750703222546</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.7043069203792</v>
+        <v>23.32174515539163</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.54841310918005</v>
+        <v>29.09330754600117</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.247405803183909</v>
+        <v>2.781653575617041</v>
       </c>
       <c r="E24">
-        <v>33.45793336625693</v>
+        <v>51.93647634825665</v>
       </c>
       <c r="F24">
-        <v>23.3516371766549</v>
+        <v>32.7111745188695</v>
       </c>
       <c r="G24">
-        <v>29.31002556424174</v>
+        <v>49.20346866031164</v>
       </c>
       <c r="H24">
-        <v>12.78477919547466</v>
+        <v>12.14564680756173</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.95609979536262</v>
+        <v>21.48872770258734</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.56690110660978</v>
+        <v>26.19578380105636</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.335203121139938</v>
+        <v>2.416815638316311</v>
       </c>
       <c r="E25">
-        <v>31.32660251772367</v>
+        <v>47.27402140558474</v>
       </c>
       <c r="F25">
-        <v>22.88785489944406</v>
+        <v>28.7702659966693</v>
       </c>
       <c r="G25">
-        <v>28.16767716871809</v>
+        <v>43.08598620153031</v>
       </c>
       <c r="H25">
-        <v>12.83485046191471</v>
+        <v>10.65097076993649</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.10053965242146</v>
+        <v>19.39212412211558</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.049496897646</v>
+        <v>12.37161803056881</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.149711362275934</v>
+        <v>4.213766388116025</v>
       </c>
       <c r="E2">
-        <v>43.60892816179168</v>
+        <v>10.39450945329143</v>
       </c>
       <c r="F2">
-        <v>25.81936501137301</v>
+        <v>22.90255361835042</v>
       </c>
       <c r="G2">
-        <v>38.5327536913254</v>
+        <v>31.40841126267836</v>
       </c>
       <c r="H2">
-        <v>9.691777735914227</v>
+        <v>2.463747806177464</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.817989584611346</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.41742843544524</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.79022495627626</v>
       </c>
       <c r="L2">
-        <v>17.73653429559894</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.22123789216192</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.658586957266271</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.14176377919906</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.51948999115024</v>
+        <v>11.6962530559426</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.967413796775475</v>
+        <v>4.145712140801608</v>
       </c>
       <c r="E3">
-        <v>40.97779177310961</v>
+        <v>10.11866147567657</v>
       </c>
       <c r="F3">
-        <v>23.78016289505636</v>
+        <v>22.11829449069417</v>
       </c>
       <c r="G3">
-        <v>35.40263647222369</v>
+        <v>30.19170483799499</v>
       </c>
       <c r="H3">
-        <v>9.263857153229878</v>
+        <v>2.657353620913796</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.949757806351253</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.29945857263437</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.76639859618337</v>
       </c>
       <c r="L3">
-        <v>16.54104340800686</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.30062076513147</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.292503289401689</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.29131713599585</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.53861806309256</v>
+        <v>11.25734938939475</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.854227674755942</v>
+        <v>4.102898529332459</v>
       </c>
       <c r="E4">
-        <v>39.28978656022185</v>
+        <v>9.944474536094877</v>
       </c>
       <c r="F4">
-        <v>22.53405974063922</v>
+        <v>21.6354634292125</v>
       </c>
       <c r="G4">
-        <v>33.45695448181718</v>
+        <v>29.43782933215806</v>
       </c>
       <c r="H4">
-        <v>9.021718032278825</v>
+        <v>2.78056498318518</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.034292436671638</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.23105894059437</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.75249500738388</v>
       </c>
       <c r="L4">
-        <v>15.76976268104538</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.70618268821796</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.059755600530039</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.38424730071216</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.12850330383477</v>
+        <v>11.06223608225175</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.807705122468916</v>
+        <v>4.085879285609968</v>
       </c>
       <c r="E5">
-        <v>38.58383289107547</v>
+        <v>9.870815978005881</v>
       </c>
       <c r="F5">
-        <v>22.09383778255081</v>
+        <v>21.43090201215565</v>
       </c>
       <c r="G5">
-        <v>32.65811905978126</v>
+        <v>29.11525255872737</v>
       </c>
       <c r="H5">
-        <v>8.928164621553801</v>
+        <v>2.832260761448322</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.07225285948365</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.20159419369626</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.7392019537405</v>
       </c>
       <c r="L5">
-        <v>15.44597024522719</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.45931882663501</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.965143642003822</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.42112850567641</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.05977758149315</v>
+        <v>11.01690745402195</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.799953761303281</v>
+        <v>4.083873327907527</v>
       </c>
       <c r="E6">
-        <v>38.4655245586221</v>
+        <v>9.856789865691184</v>
       </c>
       <c r="F6">
-        <v>22.02084035566764</v>
+        <v>21.38746777963025</v>
       </c>
       <c r="G6">
-        <v>32.52511974716591</v>
+        <v>29.04440988437188</v>
       </c>
       <c r="H6">
-        <v>8.912937275238997</v>
+        <v>2.841374131908902</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.081913561341465</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.19358426189107</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.72747039429727</v>
       </c>
       <c r="L6">
-        <v>15.39162841917004</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.42116881767067</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.951949733047607</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.42571089264445</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.53312915792701</v>
+        <v>11.22107462294754</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.853601971707592</v>
+        <v>4.104963582221396</v>
       </c>
       <c r="E7">
-        <v>39.2803387391246</v>
+        <v>9.938877989747672</v>
       </c>
       <c r="F7">
-        <v>22.52811625971623</v>
+        <v>21.60715797288916</v>
       </c>
       <c r="G7">
-        <v>33.44620497350238</v>
+        <v>29.38712743028102</v>
       </c>
       <c r="H7">
-        <v>9.020435699193886</v>
+        <v>2.782495917373589</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.043531143785227</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.22202483924115</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.72633004318883</v>
       </c>
       <c r="L7">
-        <v>15.76543447326875</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.71165522070937</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.06554848305809</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.3805445544121</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.53054479477269</v>
+        <v>12.10219428423427</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.087063126233334</v>
+        <v>4.193602886466246</v>
       </c>
       <c r="E8">
-        <v>42.71680744041987</v>
+        <v>10.29470973255547</v>
       </c>
       <c r="F8">
-        <v>25.1204832801857</v>
+        <v>22.60025291372971</v>
       </c>
       <c r="G8">
-        <v>37.45834987052268</v>
+        <v>30.93223833241654</v>
       </c>
       <c r="H8">
-        <v>9.539920469869376</v>
+        <v>2.531149976946781</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.873693376168883</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.3647135051365</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.74780362992371</v>
       </c>
       <c r="L8">
-        <v>17.33197786190301</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.92067022735696</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.542889186164372</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.18783035752199</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.19529511437421</v>
+        <v>13.68865100335457</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.539144345753039</v>
+        <v>4.354838457167745</v>
       </c>
       <c r="E9">
-        <v>48.88008789292699</v>
+        <v>10.96388081239106</v>
       </c>
       <c r="F9">
-        <v>30.10387204347647</v>
+        <v>24.56995397713603</v>
       </c>
       <c r="G9">
-        <v>45.15178088641314</v>
+        <v>33.96936769814057</v>
       </c>
       <c r="H9">
-        <v>11.15465869234471</v>
+        <v>2.06985386348147</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.554732733824212</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.691888056747</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.84174568378761</v>
       </c>
       <c r="L9">
-        <v>20.11519432816731</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.04552985710046</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.400793328657539</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.824937411056</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.79286166454373</v>
+        <v>14.61959211025607</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.874577039558746</v>
+        <v>4.483694881717335</v>
       </c>
       <c r="E10">
-        <v>53.06454339131945</v>
+        <v>11.41426082651691</v>
       </c>
       <c r="F10">
-        <v>33.69697344670284</v>
+        <v>25.86123972308916</v>
       </c>
       <c r="G10">
-        <v>50.7395356879267</v>
+        <v>35.90617124087119</v>
       </c>
       <c r="H10">
-        <v>12.52225393532498</v>
+        <v>1.784420507961561</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.349121377604564</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.90431416239048</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.7990231799335</v>
       </c>
       <c r="L10">
-        <v>21.99515620509806</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.47917140222222</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.854564415825458</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.54596361812927</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.92863600794876</v>
+        <v>14.13835973531301</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.029721556857903</v>
+        <v>4.680033351483928</v>
       </c>
       <c r="E11">
-        <v>54.89722809030522</v>
+        <v>11.72916785155029</v>
       </c>
       <c r="F11">
-        <v>35.32628638739905</v>
+        <v>25.3730223599535</v>
       </c>
       <c r="G11">
-        <v>53.28302827522587</v>
+        <v>34.87085375433769</v>
       </c>
       <c r="H11">
-        <v>13.14678339673194</v>
+        <v>2.795798251089176</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.331425846945662</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.60990337244979</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.87996949813487</v>
       </c>
       <c r="L11">
-        <v>22.8176282066859</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.19724221064087</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.902825349303654</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.31551242549769</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.35251631130984</v>
+        <v>13.57454165624625</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.0890234771449</v>
+        <v>4.825462310726883</v>
       </c>
       <c r="E12">
-        <v>55.58147734762284</v>
+        <v>12.26685363811254</v>
       </c>
       <c r="F12">
-        <v>35.9435932321678</v>
+        <v>24.70683378264764</v>
       </c>
       <c r="G12">
-        <v>54.24817702460302</v>
+        <v>33.62443305028877</v>
       </c>
       <c r="H12">
-        <v>13.38403991485069</v>
+        <v>4.179652542968968</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.338477615693034</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.32072876279966</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.19143678145871</v>
       </c>
       <c r="L12">
-        <v>23.12466998217227</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.50201818138169</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.993912590344806</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.21541581098914</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.26149568197965</v>
+        <v>12.85591923448587</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.076223896180033</v>
+        <v>4.943381807060572</v>
       </c>
       <c r="E13">
-        <v>55.43453732502278</v>
+        <v>12.95645246725408</v>
       </c>
       <c r="F13">
-        <v>35.81061104359236</v>
+        <v>23.80746822527349</v>
       </c>
       <c r="G13">
-        <v>54.04019421348386</v>
+        <v>32.03752642341689</v>
       </c>
       <c r="H13">
-        <v>13.33290084030245</v>
+        <v>5.604912155337311</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.379363011950712</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.00129238541393</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.60727571240824</v>
       </c>
       <c r="L13">
-        <v>23.05873396923512</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.5266088013087</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.054668307904845</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.20141955374151</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.96363100392946</v>
+        <v>12.26540837288563</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.034588121469015</v>
+        <v>5.015149820074264</v>
       </c>
       <c r="E14">
-        <v>54.95371412493564</v>
+        <v>13.53116545374894</v>
       </c>
       <c r="F14">
-        <v>35.37705910124478</v>
+        <v>23.05596072430074</v>
       </c>
       <c r="G14">
-        <v>53.36238031762858</v>
+        <v>30.74155067839828</v>
       </c>
       <c r="H14">
-        <v>13.16628461325464</v>
+        <v>6.614597331469896</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.425690808897151</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.760912200473562</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.25383852124923</v>
       </c>
       <c r="L14">
-        <v>22.84297524462906</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.41980669257002</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.383663656703376</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.23287003755402</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.78038357278615</v>
+        <v>12.07668845153358</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.009162943400397</v>
+        <v>5.02666585047475</v>
       </c>
       <c r="E15">
-        <v>54.65794153198505</v>
+        <v>13.66372389377362</v>
       </c>
       <c r="F15">
-        <v>35.11157401673944</v>
+        <v>22.81455400498183</v>
       </c>
       <c r="G15">
-        <v>52.94751736353491</v>
+        <v>30.3368817351255</v>
       </c>
       <c r="H15">
-        <v>13.06434064048848</v>
+        <v>6.849908763149121</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.448924026863705</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.693947229632821</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.17971191663933</v>
       </c>
       <c r="L15">
-        <v>22.71025201751256</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.33610869407499</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.215324337051229</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.25449376651694</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.7177445788879</v>
+        <v>11.76854968099516</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.864504451857428</v>
+        <v>4.949571879709194</v>
       </c>
       <c r="E16">
-        <v>52.94338237725304</v>
+        <v>13.34207844960383</v>
       </c>
       <c r="F16">
-        <v>33.59047500061967</v>
+        <v>22.37526833421375</v>
       </c>
       <c r="G16">
-        <v>50.57348498690337</v>
+        <v>29.69805566954095</v>
       </c>
       <c r="H16">
-        <v>12.48152086016502</v>
+        <v>6.653539580634832</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.534586297957618</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.652847794000468</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.31007462507888</v>
       </c>
       <c r="L16">
-        <v>21.9407713532837</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.75173718878803</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.165736315092173</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.36660454941497</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.05435652504067</v>
+        <v>11.85630218267926</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.776537103328968</v>
+        <v>4.850833095422309</v>
       </c>
       <c r="E17">
-        <v>51.87368619286731</v>
+        <v>12.7531380951944</v>
       </c>
       <c r="F17">
-        <v>32.65668000950123</v>
+        <v>22.45378612029993</v>
       </c>
       <c r="G17">
-        <v>49.11862004348531</v>
+        <v>29.92749341867183</v>
       </c>
       <c r="H17">
-        <v>12.12485726319996</v>
+        <v>5.936612023902803</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.576441854984363</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.751893006927746</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.58847115590686</v>
       </c>
       <c r="L17">
-        <v>21.46053302722265</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.35353455265409</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.49243860063201</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.43550660150335</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.66844953929773</v>
+        <v>12.32188497861421</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.726168304191384</v>
+        <v>4.723982826344164</v>
       </c>
       <c r="E18">
-        <v>51.2517238213053</v>
+        <v>11.9852267422945</v>
       </c>
       <c r="F18">
-        <v>32.1190175462637</v>
+        <v>23.00009952058972</v>
       </c>
       <c r="G18">
-        <v>48.28184182156255</v>
+        <v>30.95600915151539</v>
       </c>
       <c r="H18">
-        <v>11.91990904847558</v>
+        <v>4.719679750760842</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.57320876506479</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.985926913331411</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.07193253398468</v>
       </c>
       <c r="L18">
-        <v>21.18121148403396</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.07195595942568</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.191539948320555</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.49045920891471</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.53703124939051</v>
+        <v>12.99796853512504</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.709148280065726</v>
+        <v>4.595850690167805</v>
       </c>
       <c r="E19">
-        <v>51.03997560693035</v>
+        <v>11.38333583160022</v>
       </c>
       <c r="F19">
-        <v>31.9368481024297</v>
+        <v>23.82723194301775</v>
       </c>
       <c r="G19">
-        <v>47.99848007849338</v>
+        <v>32.45303663830457</v>
       </c>
       <c r="H19">
-        <v>11.85053972838455</v>
+        <v>3.298801068283334</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.547827378112341</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.29379090232582</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.69476176930217</v>
       </c>
       <c r="L19">
-        <v>21.08609709255485</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.92326025771936</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.156549572243227</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.54916553831222</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.1254222767397</v>
+        <v>14.29456800490596</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.785876575459561</v>
+        <v>4.458329049335927</v>
       </c>
       <c r="E20">
-        <v>51.98824794440575</v>
+        <v>11.28609203074121</v>
       </c>
       <c r="F20">
-        <v>32.7561359416933</v>
+        <v>25.45084164030187</v>
       </c>
       <c r="G20">
-        <v>49.27347928527893</v>
+        <v>35.27118283130508</v>
       </c>
       <c r="H20">
-        <v>12.16280184000139</v>
+        <v>1.860637019688546</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.430712000879112</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.82027747678433</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.72794536997475</v>
       </c>
       <c r="L20">
-        <v>21.51197417528352</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.13420250146861</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.749383915802323</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.60748274349924</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.05128634628122</v>
+        <v>15.14379026788431</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.046800938477268</v>
+        <v>4.531176101186773</v>
       </c>
       <c r="E21">
-        <v>55.09520403622334</v>
+        <v>11.66121625607508</v>
       </c>
       <c r="F21">
-        <v>35.50438528085059</v>
+        <v>26.63515050283014</v>
       </c>
       <c r="G21">
-        <v>53.56140074946215</v>
+        <v>37.09897831558828</v>
       </c>
       <c r="H21">
-        <v>13.21519933134548</v>
+        <v>1.596558566312802</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.261602577987172</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.06386629580224</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.87330397672922</v>
       </c>
       <c r="L21">
-        <v>22.90646591398336</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.16884511629362</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.289185822466434</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.41912926773773</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.27395934012171</v>
+        <v>15.65704184112951</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.220659063726543</v>
+        <v>4.582146120327079</v>
       </c>
       <c r="E22">
-        <v>57.06924944618099</v>
+        <v>11.89789087774296</v>
       </c>
       <c r="F22">
-        <v>37.30308962573849</v>
+        <v>27.36599666116322</v>
       </c>
       <c r="G22">
-        <v>56.37650288422774</v>
+        <v>38.21410113950503</v>
       </c>
       <c r="H22">
-        <v>13.90771212744858</v>
+        <v>1.676535743247316</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.145803533607776</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.21415832487844</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.94864389146639</v>
       </c>
       <c r="L22">
-        <v>23.79231270697469</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.81701269005774</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.556468574532447</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.29347413123297</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.62454631920077</v>
+        <v>15.41510806844152</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.127493041125005</v>
+        <v>4.552237217121117</v>
       </c>
       <c r="E23">
-        <v>56.02065971737463</v>
+        <v>11.7755428977659</v>
       </c>
       <c r="F23">
-        <v>36.34242936624729</v>
+        <v>27.00083367096567</v>
       </c>
       <c r="G23">
-        <v>54.87217274816844</v>
+        <v>37.66328802164337</v>
       </c>
       <c r="H23">
-        <v>13.53750703222546</v>
+        <v>1.597264481936983</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.196218930157738</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.14276084321398</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.93755993309108</v>
       </c>
       <c r="L23">
-        <v>23.32174515539163</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.46573837239268</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.408133984025731</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.36455716271024</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.09330754600117</v>
+        <v>14.40748597077642</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.781653575617041</v>
+        <v>4.441174977556507</v>
       </c>
       <c r="E24">
-        <v>51.93647634825665</v>
+        <v>11.30187821414976</v>
       </c>
       <c r="F24">
-        <v>32.7111745188695</v>
+        <v>25.56681587057851</v>
       </c>
       <c r="G24">
-        <v>49.20346866031164</v>
+        <v>35.48278325074452</v>
       </c>
       <c r="H24">
-        <v>12.14564680756173</v>
+        <v>1.838603530331075</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.41055110407337</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.86587104412406</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.85227798665841</v>
       </c>
       <c r="L24">
-        <v>21.48872770258734</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.09641720148653</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.838769575441416</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.62821388100459</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19578380105636</v>
+        <v>13.22889056285071</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.416815638316311</v>
+        <v>4.316426139996053</v>
       </c>
       <c r="E25">
-        <v>47.27402140558474</v>
+        <v>10.77952389098858</v>
       </c>
       <c r="F25">
-        <v>28.7702659966693</v>
+        <v>23.99935690859428</v>
       </c>
       <c r="G25">
-        <v>43.08598620153031</v>
+        <v>33.08328487674216</v>
       </c>
       <c r="H25">
-        <v>10.65097076993649</v>
+        <v>2.193094156948516</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.653610206869709</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.58504097910933</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.76986030812756</v>
       </c>
       <c r="L25">
-        <v>19.39212412211558</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.50891500560205</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.187382742724356</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.9156224621367</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.37161803056881</v>
+        <v>11.46843013198435</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.213766388116025</v>
+        <v>4.254833218814292</v>
       </c>
       <c r="E2">
-        <v>10.39450945329143</v>
+        <v>9.827124744444154</v>
       </c>
       <c r="F2">
-        <v>22.90255361835042</v>
+        <v>22.38592560961209</v>
       </c>
       <c r="G2">
-        <v>31.40841126267836</v>
+        <v>29.95609685866608</v>
       </c>
       <c r="H2">
-        <v>2.463747806177464</v>
+        <v>2.294903138240156</v>
       </c>
       <c r="I2">
-        <v>3.817989584611346</v>
+        <v>3.569934740399635</v>
       </c>
       <c r="J2">
-        <v>10.41742843544524</v>
+        <v>10.71177535473425</v>
       </c>
       <c r="K2">
-        <v>17.79022495627626</v>
+        <v>16.68604498062339</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.26784856238367</v>
       </c>
       <c r="M2">
-        <v>15.22123789216192</v>
+        <v>11.40045701831703</v>
       </c>
       <c r="N2">
-        <v>7.658586957266271</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.29896543308296</v>
       </c>
       <c r="P2">
-        <v>13.14176377919906</v>
+        <v>7.944597622207383</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.89665126432371</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.6962530559426</v>
+        <v>10.86189383984164</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.145712140801608</v>
+        <v>4.169715767552059</v>
       </c>
       <c r="E3">
-        <v>10.11866147567657</v>
+        <v>9.562733850684904</v>
       </c>
       <c r="F3">
-        <v>22.11829449069417</v>
+        <v>21.66574735338071</v>
       </c>
       <c r="G3">
-        <v>30.19170483799499</v>
+        <v>28.85465931241619</v>
       </c>
       <c r="H3">
-        <v>2.657353620913796</v>
+        <v>2.473769018696308</v>
       </c>
       <c r="I3">
-        <v>3.949757806351253</v>
+        <v>3.682736556520421</v>
       </c>
       <c r="J3">
-        <v>10.29945857263437</v>
+        <v>10.58085934631888</v>
       </c>
       <c r="K3">
-        <v>17.76639859618337</v>
+        <v>16.7214967705439</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.38325672198309</v>
       </c>
       <c r="M3">
-        <v>14.30062076513147</v>
+        <v>11.37430359628318</v>
       </c>
       <c r="N3">
-        <v>7.292503289401689</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.35686000254266</v>
       </c>
       <c r="P3">
-        <v>13.29131713599585</v>
+        <v>7.571209406488563</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.04515117218407</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.25734938939475</v>
+        <v>10.46599296149304</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.102898529332459</v>
+        <v>4.116284239423932</v>
       </c>
       <c r="E4">
-        <v>9.944474536094877</v>
+        <v>9.396426887397778</v>
       </c>
       <c r="F4">
-        <v>21.6354634292125</v>
+        <v>21.22230926196674</v>
       </c>
       <c r="G4">
-        <v>29.43782933215806</v>
+        <v>28.17720796979776</v>
       </c>
       <c r="H4">
-        <v>2.78056498318518</v>
+        <v>2.58765231384502</v>
       </c>
       <c r="I4">
-        <v>4.034292436671638</v>
+        <v>3.755433683018936</v>
       </c>
       <c r="J4">
-        <v>10.23105894059437</v>
+        <v>10.50142196062605</v>
       </c>
       <c r="K4">
-        <v>17.75249500738388</v>
+        <v>16.74315581221949</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.45398916568214</v>
       </c>
       <c r="M4">
-        <v>13.70618268821796</v>
+        <v>11.37109505595815</v>
       </c>
       <c r="N4">
-        <v>7.059755600530039</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.74810069160266</v>
       </c>
       <c r="P4">
-        <v>13.38424730071216</v>
+        <v>7.334353354764753</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.13763651249268</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.06223608225175</v>
+        <v>10.28897838521126</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.085879285609968</v>
+        <v>4.094910330898085</v>
       </c>
       <c r="E5">
-        <v>9.870815978005881</v>
+        <v>9.326767135597185</v>
       </c>
       <c r="F5">
-        <v>21.43090201215565</v>
+        <v>21.03425726888206</v>
       </c>
       <c r="G5">
-        <v>29.11525255872737</v>
+        <v>27.8878824551076</v>
       </c>
       <c r="H5">
-        <v>2.832260761448322</v>
+        <v>2.635449398785895</v>
       </c>
       <c r="I5">
-        <v>4.07225285948365</v>
+        <v>3.788941265272073</v>
       </c>
       <c r="J5">
-        <v>10.20159419369626</v>
+        <v>10.46689762609065</v>
       </c>
       <c r="K5">
-        <v>17.7392019537405</v>
+        <v>16.74496527537027</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.47608581708945</v>
       </c>
       <c r="M5">
-        <v>13.45931882663501</v>
+        <v>11.3691841319893</v>
       </c>
       <c r="N5">
-        <v>6.965143642003822</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.49500506089413</v>
       </c>
       <c r="P5">
-        <v>13.42112850567641</v>
+        <v>7.238005352361794</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.17464853691637</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.01690745402195</v>
+        <v>10.24720294553188</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.083873327907527</v>
+        <v>4.092181987792894</v>
       </c>
       <c r="E6">
-        <v>9.856789865691184</v>
+        <v>9.314123023645731</v>
       </c>
       <c r="F6">
-        <v>21.38746777963025</v>
+        <v>20.99416331486771</v>
       </c>
       <c r="G6">
-        <v>29.04440988437188</v>
+        <v>27.82358041677141</v>
       </c>
       <c r="H6">
-        <v>2.841374131908902</v>
+        <v>2.643879777088917</v>
       </c>
       <c r="I6">
-        <v>4.081913561341465</v>
+        <v>3.798416249612145</v>
       </c>
       <c r="J6">
-        <v>10.19358426189107</v>
+        <v>10.45824187791853</v>
       </c>
       <c r="K6">
-        <v>17.72747039429727</v>
+        <v>16.73673646752955</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.47158843510037</v>
       </c>
       <c r="M6">
-        <v>13.42116881767067</v>
+        <v>11.3643488288598</v>
       </c>
       <c r="N6">
-        <v>6.951949733047607</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.45565812300176</v>
       </c>
       <c r="P6">
-        <v>13.42571089264445</v>
+        <v>7.22431894693911</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.17957802629716</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.22107462294754</v>
+        <v>10.43318025072495</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.104963582221396</v>
+        <v>4.121143358604888</v>
       </c>
       <c r="E7">
-        <v>9.938877989747672</v>
+        <v>9.391999750454657</v>
       </c>
       <c r="F7">
-        <v>21.60715797288916</v>
+        <v>21.17111074909949</v>
       </c>
       <c r="G7">
-        <v>29.38712743028102</v>
+        <v>28.20954038552165</v>
       </c>
       <c r="H7">
-        <v>2.782495917373589</v>
+        <v>2.589954187071084</v>
       </c>
       <c r="I7">
-        <v>4.043531143785227</v>
+        <v>3.766421592848021</v>
       </c>
       <c r="J7">
-        <v>10.22202483924115</v>
+        <v>10.4401948562041</v>
       </c>
       <c r="K7">
-        <v>17.72633004318883</v>
+        <v>16.71449681050549</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.42742627863676</v>
       </c>
       <c r="M7">
-        <v>13.71165522070937</v>
+        <v>11.35450062653367</v>
       </c>
       <c r="N7">
-        <v>7.06554848305809</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.74228921213986</v>
       </c>
       <c r="P7">
-        <v>13.3805445544121</v>
+        <v>7.336633271790634</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.13370679420376</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.10219428423427</v>
+        <v>11.22989890712915</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.193602886466246</v>
+        <v>4.238336725849813</v>
       </c>
       <c r="E8">
-        <v>10.29470973255547</v>
+        <v>9.730930658543377</v>
       </c>
       <c r="F8">
-        <v>22.60025291372971</v>
+        <v>22.02872739701509</v>
       </c>
       <c r="G8">
-        <v>30.93223833241654</v>
+        <v>29.7766356627004</v>
       </c>
       <c r="H8">
-        <v>2.531149976946781</v>
+        <v>2.358753292733944</v>
       </c>
       <c r="I8">
-        <v>3.873693376168883</v>
+        <v>3.622089559454341</v>
       </c>
       <c r="J8">
-        <v>10.3647135051365</v>
+        <v>10.48425862719374</v>
       </c>
       <c r="K8">
-        <v>17.74780362992371</v>
+        <v>16.65035619538943</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.26583267200635</v>
       </c>
       <c r="M8">
-        <v>14.92067022735696</v>
+        <v>11.35762566498048</v>
       </c>
       <c r="N8">
-        <v>7.542889186164372</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>14.95735808526274</v>
       </c>
       <c r="P8">
-        <v>13.18783035752199</v>
+        <v>7.816438783800033</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.94026786598849</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.68865100335457</v>
+        <v>12.64947575335471</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.354838457167745</v>
+        <v>4.443659648818659</v>
       </c>
       <c r="E9">
-        <v>10.96388081239106</v>
+        <v>10.37277292219715</v>
       </c>
       <c r="F9">
-        <v>24.56995397713603</v>
+        <v>23.82395512258067</v>
       </c>
       <c r="G9">
-        <v>33.96936769814057</v>
+        <v>32.60199251773857</v>
       </c>
       <c r="H9">
-        <v>2.06985386348147</v>
+        <v>1.933174211639575</v>
       </c>
       <c r="I9">
-        <v>3.554732733824212</v>
+        <v>3.348112268191933</v>
       </c>
       <c r="J9">
-        <v>10.691888056747</v>
+        <v>10.78327021988346</v>
       </c>
       <c r="K9">
-        <v>17.84174568378761</v>
+        <v>16.5843124127239</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.00099840950453</v>
       </c>
       <c r="M9">
-        <v>17.04552985710046</v>
+        <v>11.50337267220515</v>
       </c>
       <c r="N9">
-        <v>8.400793328657539</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>17.1252272590039</v>
       </c>
       <c r="P9">
-        <v>12.824937411056</v>
+        <v>8.693202997828759</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.57993882782197</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.61959211025607</v>
+        <v>13.48905907321255</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.483694881717335</v>
+        <v>4.619900069315295</v>
       </c>
       <c r="E10">
-        <v>11.41426082651691</v>
+        <v>10.82458039720742</v>
       </c>
       <c r="F10">
-        <v>25.86123972308916</v>
+        <v>24.88243956853361</v>
       </c>
       <c r="G10">
-        <v>35.90617124087119</v>
+        <v>34.8282571310056</v>
       </c>
       <c r="H10">
-        <v>1.784420507961561</v>
+        <v>1.675263296237172</v>
       </c>
       <c r="I10">
-        <v>3.349121377604564</v>
+        <v>3.17642967176263</v>
       </c>
       <c r="J10">
-        <v>10.90431416239048</v>
+        <v>10.68209634945329</v>
       </c>
       <c r="K10">
-        <v>17.7990231799335</v>
+        <v>16.41531170125202</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.71727597479671</v>
       </c>
       <c r="M10">
-        <v>18.47917140222222</v>
+        <v>11.57369769570314</v>
       </c>
       <c r="N10">
-        <v>8.854564415825458</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.53176687757416</v>
       </c>
       <c r="P10">
-        <v>12.54596361812927</v>
+        <v>9.144540816660756</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.30719344178051</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.13835973531301</v>
+        <v>13.12134532420781</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.680033351483928</v>
+        <v>4.86384734994353</v>
       </c>
       <c r="E11">
-        <v>11.72916785155029</v>
+        <v>11.28029694629894</v>
       </c>
       <c r="F11">
-        <v>25.3730223599535</v>
+        <v>24.20005523941927</v>
       </c>
       <c r="G11">
-        <v>34.87085375433769</v>
+        <v>34.79883730778436</v>
       </c>
       <c r="H11">
-        <v>2.795798251089176</v>
+        <v>2.732289828331153</v>
       </c>
       <c r="I11">
-        <v>3.331425846945662</v>
+        <v>3.170967781913592</v>
       </c>
       <c r="J11">
-        <v>10.60990337244979</v>
+        <v>9.843414525160494</v>
       </c>
       <c r="K11">
-        <v>16.87996949813487</v>
+        <v>15.60000310952025</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.07006262739778</v>
       </c>
       <c r="M11">
-        <v>19.19724221064087</v>
+        <v>11.00870257733724</v>
       </c>
       <c r="N11">
-        <v>7.902825349303654</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>19.11974074101827</v>
       </c>
       <c r="P11">
-        <v>12.31551242549769</v>
+        <v>8.143767637848912</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.13700355318012</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.57454165624625</v>
+        <v>12.66661955333777</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.825462310726883</v>
+        <v>5.028889904653697</v>
       </c>
       <c r="E12">
-        <v>12.26685363811254</v>
+        <v>11.88733990960764</v>
       </c>
       <c r="F12">
-        <v>24.70683378264764</v>
+        <v>23.49238636519723</v>
       </c>
       <c r="G12">
-        <v>33.62443305028877</v>
+        <v>34.10327417403337</v>
       </c>
       <c r="H12">
-        <v>4.179652542968968</v>
+        <v>4.137036365804335</v>
       </c>
       <c r="I12">
-        <v>3.338477615693034</v>
+        <v>3.178206557518928</v>
       </c>
       <c r="J12">
-        <v>10.32072876279966</v>
+        <v>9.349926263164749</v>
       </c>
       <c r="K12">
-        <v>16.19143678145871</v>
+        <v>15.04065794294092</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.66859956798778</v>
       </c>
       <c r="M12">
-        <v>19.50201818138169</v>
+        <v>10.57149841459064</v>
       </c>
       <c r="N12">
-        <v>6.993912590344806</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>19.34947362520331</v>
       </c>
       <c r="P12">
-        <v>12.21541581098914</v>
+        <v>7.204709619955609</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.08520243816424</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.85591923448587</v>
+        <v>12.0617534769487</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.943381807060572</v>
+        <v>5.134812655347579</v>
       </c>
       <c r="E13">
-        <v>12.95645246725408</v>
+        <v>12.63038491104684</v>
       </c>
       <c r="F13">
-        <v>23.80746822527349</v>
+        <v>22.72349201861593</v>
       </c>
       <c r="G13">
-        <v>32.03752642341689</v>
+        <v>32.58763948549785</v>
       </c>
       <c r="H13">
-        <v>5.604912155337311</v>
+        <v>5.570278876096254</v>
       </c>
       <c r="I13">
-        <v>3.379363011950712</v>
+        <v>3.211948177323745</v>
       </c>
       <c r="J13">
-        <v>10.00129238541393</v>
+        <v>9.16849498814838</v>
       </c>
       <c r="K13">
-        <v>15.60727571240824</v>
+        <v>14.61783693452629</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.39104604076942</v>
       </c>
       <c r="M13">
-        <v>19.5266088013087</v>
+        <v>10.19990479554037</v>
       </c>
       <c r="N13">
-        <v>6.054668307904845</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>19.35578063005792</v>
       </c>
       <c r="P13">
-        <v>12.20141955374151</v>
+        <v>6.253645114171349</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.1065254987801</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.26540837288563</v>
+        <v>11.55453082571265</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.015149820074264</v>
+        <v>5.182869302702949</v>
       </c>
       <c r="E14">
-        <v>13.53116545374894</v>
+        <v>13.24110088053468</v>
       </c>
       <c r="F14">
-        <v>23.05596072430074</v>
+        <v>22.14046476236859</v>
       </c>
       <c r="G14">
-        <v>30.74155067839828</v>
+        <v>31.1318984647803</v>
       </c>
       <c r="H14">
-        <v>6.614597331469896</v>
+        <v>6.582481653252451</v>
       </c>
       <c r="I14">
-        <v>3.425690808897151</v>
+        <v>3.250604157451854</v>
       </c>
       <c r="J14">
-        <v>9.760912200473562</v>
+        <v>9.166778716777465</v>
       </c>
       <c r="K14">
-        <v>15.25383852124923</v>
+        <v>14.38336877123902</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.24498443281115</v>
       </c>
       <c r="M14">
-        <v>19.41980669257002</v>
+        <v>9.976333668780098</v>
       </c>
       <c r="N14">
-        <v>5.383663656703376</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>19.26075807833974</v>
       </c>
       <c r="P14">
-        <v>12.23287003755402</v>
+        <v>5.583171994428325</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.152611335822</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.07668845153358</v>
+        <v>11.38791738360424</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.02666585047475</v>
+        <v>5.182235733149168</v>
       </c>
       <c r="E15">
-        <v>13.66372389377362</v>
+        <v>13.38771347804872</v>
       </c>
       <c r="F15">
-        <v>22.81455400498183</v>
+        <v>21.97336632222543</v>
       </c>
       <c r="G15">
-        <v>30.3368817351255</v>
+        <v>30.59871198138585</v>
       </c>
       <c r="H15">
-        <v>6.849908763149121</v>
+        <v>6.817630411026474</v>
       </c>
       <c r="I15">
-        <v>3.448924026863705</v>
+        <v>3.271093584956526</v>
       </c>
       <c r="J15">
-        <v>9.693947229632821</v>
+        <v>9.21856634339624</v>
       </c>
       <c r="K15">
-        <v>15.17971191663933</v>
+        <v>14.3426547961529</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.22147948718792</v>
       </c>
       <c r="M15">
-        <v>19.33610869407499</v>
+        <v>9.930818445388056</v>
       </c>
       <c r="N15">
-        <v>5.215324337051229</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>19.19053693136143</v>
       </c>
       <c r="P15">
-        <v>12.25449376651694</v>
+        <v>5.418018930544837</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.17463793798608</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.76854968099516</v>
+        <v>11.0900883608605</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.949571879709194</v>
+        <v>5.053928912110526</v>
       </c>
       <c r="E16">
-        <v>13.34207844960383</v>
+        <v>13.11891194374289</v>
       </c>
       <c r="F16">
-        <v>22.37526833421375</v>
+        <v>21.80416621279169</v>
       </c>
       <c r="G16">
-        <v>29.69805566954095</v>
+        <v>29.21313013799987</v>
       </c>
       <c r="H16">
-        <v>6.653539580634832</v>
+        <v>6.613960760186913</v>
       </c>
       <c r="I16">
-        <v>3.534586297957618</v>
+        <v>3.342247620181821</v>
       </c>
       <c r="J16">
-        <v>9.652847794000468</v>
+        <v>9.682638731537173</v>
       </c>
       <c r="K16">
-        <v>15.31007462507888</v>
+        <v>14.51203656530297</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.3494194167562</v>
       </c>
       <c r="M16">
-        <v>18.75173718878803</v>
+        <v>10.02752073751815</v>
       </c>
       <c r="N16">
-        <v>5.165736315092173</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>18.69572547348238</v>
       </c>
       <c r="P16">
-        <v>12.36660454941497</v>
+        <v>5.392290622965695</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.26410100953848</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.85630218267926</v>
+        <v>11.14205805349471</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.850833095422309</v>
+        <v>4.935839933749851</v>
       </c>
       <c r="E17">
-        <v>12.7531380951944</v>
+        <v>12.53532209042701</v>
       </c>
       <c r="F17">
-        <v>22.45378612029993</v>
+        <v>21.96546497004965</v>
       </c>
       <c r="G17">
-        <v>29.92749341867183</v>
+        <v>29.06174167416405</v>
       </c>
       <c r="H17">
-        <v>5.936612023902803</v>
+        <v>5.888507076805731</v>
       </c>
       <c r="I17">
-        <v>3.576441854984363</v>
+        <v>3.377486507784565</v>
       </c>
       <c r="J17">
-        <v>9.751893006927746</v>
+        <v>9.982029079171298</v>
       </c>
       <c r="K17">
-        <v>15.58847115590686</v>
+        <v>14.76177019483075</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.53616742602117</v>
       </c>
       <c r="M17">
-        <v>18.35353455265409</v>
+        <v>10.20590640253089</v>
       </c>
       <c r="N17">
-        <v>5.49243860063201</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>18.34722285087946</v>
       </c>
       <c r="P17">
-        <v>12.43550660150335</v>
+        <v>5.733500532693257</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.31411305665573</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.32188497861421</v>
+        <v>11.52406584833079</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.723982826344164</v>
+        <v>4.806286885368227</v>
       </c>
       <c r="E18">
-        <v>11.9852267422945</v>
+        <v>11.72588163695714</v>
       </c>
       <c r="F18">
-        <v>23.00009952058972</v>
+        <v>22.48811045174705</v>
       </c>
       <c r="G18">
-        <v>30.95600915151539</v>
+        <v>29.83152880656964</v>
       </c>
       <c r="H18">
-        <v>4.719679750760842</v>
+        <v>4.658322211322847</v>
       </c>
       <c r="I18">
-        <v>3.57320876506479</v>
+        <v>3.371846425153438</v>
       </c>
       <c r="J18">
-        <v>9.985926913331411</v>
+        <v>10.27234103110419</v>
       </c>
       <c r="K18">
-        <v>16.07193253398468</v>
+        <v>15.15541358532653</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.83449941109667</v>
       </c>
       <c r="M18">
-        <v>18.07195595942568</v>
+        <v>10.50198594306677</v>
       </c>
       <c r="N18">
-        <v>6.191539948320555</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>18.10452702280853</v>
       </c>
       <c r="P18">
-        <v>12.49045920891471</v>
+        <v>6.44745552030161</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.3455069930504</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.99796853512504</v>
+        <v>12.08651404616085</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.595850690167805</v>
+        <v>4.683928845053006</v>
       </c>
       <c r="E19">
-        <v>11.38333583160022</v>
+        <v>11.02639932773312</v>
       </c>
       <c r="F19">
-        <v>23.82723194301775</v>
+        <v>23.23124194979989</v>
       </c>
       <c r="G19">
-        <v>32.45303663830457</v>
+        <v>31.12880030455834</v>
       </c>
       <c r="H19">
-        <v>3.298801068283334</v>
+        <v>3.21509003996911</v>
       </c>
       <c r="I19">
-        <v>3.547827378112341</v>
+        <v>3.35148214775539</v>
       </c>
       <c r="J19">
-        <v>10.29379090232582</v>
+        <v>10.55999704047848</v>
       </c>
       <c r="K19">
-        <v>16.69476176930217</v>
+        <v>15.64385597044748</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.20604777095201</v>
       </c>
       <c r="M19">
-        <v>17.92326025771936</v>
+        <v>10.87602394398069</v>
       </c>
       <c r="N19">
-        <v>7.156549572243227</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17.9896199188965</v>
       </c>
       <c r="P19">
-        <v>12.54916553831222</v>
+        <v>7.429855145399412</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.37346173676034</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.29456800490596</v>
+        <v>13.18830971917256</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.458329049335927</v>
+        <v>4.571905563955304</v>
       </c>
       <c r="E20">
-        <v>11.28609203074121</v>
+        <v>10.70775875985291</v>
       </c>
       <c r="F20">
-        <v>25.45084164030187</v>
+        <v>24.61389785295185</v>
       </c>
       <c r="G20">
-        <v>35.27118283130508</v>
+        <v>33.88191118521927</v>
       </c>
       <c r="H20">
-        <v>1.860637019688546</v>
+        <v>1.742436107297083</v>
       </c>
       <c r="I20">
-        <v>3.430712000879112</v>
+        <v>3.25325246316826</v>
       </c>
       <c r="J20">
-        <v>10.82027747678433</v>
+        <v>10.85967459835035</v>
       </c>
       <c r="K20">
-        <v>17.72794536997475</v>
+        <v>16.4076262493394</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.75197749844081</v>
       </c>
       <c r="M20">
-        <v>18.13420250146861</v>
+        <v>11.51166363757704</v>
       </c>
       <c r="N20">
-        <v>8.749383915802323</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>18.22317202905431</v>
       </c>
       <c r="P20">
-        <v>12.60748274349924</v>
+        <v>9.047168238709336</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.3735752473793</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.14379026788431</v>
+        <v>13.96825309514221</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.531176101186773</v>
+        <v>4.736319918330445</v>
       </c>
       <c r="E21">
-        <v>11.66121625607508</v>
+        <v>11.03321532072076</v>
       </c>
       <c r="F21">
-        <v>26.63515050283014</v>
+        <v>25.20648432357506</v>
       </c>
       <c r="G21">
-        <v>37.09897831558828</v>
+        <v>37.14980788798275</v>
       </c>
       <c r="H21">
-        <v>1.596558566312802</v>
+        <v>1.613177493508406</v>
       </c>
       <c r="I21">
-        <v>3.261602577987172</v>
+        <v>3.115937340827141</v>
       </c>
       <c r="J21">
-        <v>11.06386629580224</v>
+        <v>9.953508749352617</v>
       </c>
       <c r="K21">
-        <v>17.87330397672922</v>
+        <v>16.32109115777978</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.57338041228244</v>
       </c>
       <c r="M21">
-        <v>19.16884511629362</v>
+        <v>11.61077748237833</v>
       </c>
       <c r="N21">
-        <v>9.289185822466434</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>19.08843506141687</v>
       </c>
       <c r="P21">
-        <v>12.41912926773773</v>
+        <v>9.545774881926395</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.16756106736868</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.65704184112951</v>
+        <v>14.44515374684165</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.582146120327079</v>
+        <v>4.851615430810614</v>
       </c>
       <c r="E22">
-        <v>11.89789087774296</v>
+        <v>11.25091799363413</v>
       </c>
       <c r="F22">
-        <v>27.36599666116322</v>
+        <v>25.53687606111537</v>
       </c>
       <c r="G22">
-        <v>38.21410113950503</v>
+        <v>39.2780446998437</v>
       </c>
       <c r="H22">
-        <v>1.676535743247316</v>
+        <v>1.746373175671415</v>
       </c>
       <c r="I22">
-        <v>3.145803533607776</v>
+        <v>3.018169276053038</v>
       </c>
       <c r="J22">
-        <v>11.21415832487844</v>
+        <v>9.320739855683938</v>
       </c>
       <c r="K22">
-        <v>17.94864389146639</v>
+        <v>16.24291844369554</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.44309395366808</v>
       </c>
       <c r="M22">
-        <v>19.81701269005774</v>
+        <v>11.66610166444204</v>
       </c>
       <c r="N22">
-        <v>9.556468574532447</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>19.61864461570017</v>
       </c>
       <c r="P22">
-        <v>12.29347413123297</v>
+        <v>9.783070290473933</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.0325463244851</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.41510806844152</v>
+        <v>14.21737509844704</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.552237217121117</v>
+        <v>4.779380822259124</v>
       </c>
       <c r="E23">
-        <v>11.7755428977659</v>
+        <v>11.13762090555952</v>
       </c>
       <c r="F23">
-        <v>27.00083367096567</v>
+        <v>25.43767168770188</v>
       </c>
       <c r="G23">
-        <v>37.66328802164337</v>
+        <v>38.01262255143112</v>
       </c>
       <c r="H23">
-        <v>1.597264481936983</v>
+        <v>1.677426371010378</v>
       </c>
       <c r="I23">
-        <v>3.196218930157738</v>
+        <v>3.056277541096517</v>
       </c>
       <c r="J23">
-        <v>11.14276084321398</v>
+        <v>9.780995786608679</v>
       </c>
       <c r="K23">
-        <v>17.93755993309108</v>
+        <v>16.32274046120141</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.53875295594019</v>
       </c>
       <c r="M23">
-        <v>19.46573837239268</v>
+        <v>11.66746197469515</v>
       </c>
       <c r="N23">
-        <v>9.408133984025731</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>19.35134813871218</v>
       </c>
       <c r="P23">
-        <v>12.36455716271024</v>
+        <v>9.657245451365814</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.10814346047611</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.40748597077642</v>
+        <v>13.28698563691633</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.441174977556507</v>
+        <v>4.554222559258311</v>
       </c>
       <c r="E24">
-        <v>11.30187821414976</v>
+        <v>10.70206011075878</v>
       </c>
       <c r="F24">
-        <v>25.56681587057851</v>
+        <v>24.72227870259105</v>
       </c>
       <c r="G24">
-        <v>35.48278325074452</v>
+        <v>34.05945109473753</v>
       </c>
       <c r="H24">
-        <v>1.838603530331075</v>
+        <v>1.720263552437599</v>
       </c>
       <c r="I24">
-        <v>3.41055110407337</v>
+        <v>3.230233479890412</v>
       </c>
       <c r="J24">
-        <v>10.86587104412406</v>
+        <v>10.90869711923975</v>
       </c>
       <c r="K24">
-        <v>17.85227798665841</v>
+        <v>16.51032672864439</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.83065005041787</v>
       </c>
       <c r="M24">
-        <v>18.09641720148653</v>
+        <v>11.58939641175163</v>
       </c>
       <c r="N24">
-        <v>8.838769575441416</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>18.19042591513009</v>
       </c>
       <c r="P24">
-        <v>12.62821388100459</v>
+        <v>9.139834269915065</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.38711149968237</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.22889056285071</v>
+        <v>12.23452441031242</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.316426139996053</v>
+        <v>4.389482436770443</v>
       </c>
       <c r="E25">
-        <v>10.77952389098858</v>
+        <v>10.20041627553365</v>
       </c>
       <c r="F25">
-        <v>23.99935690859428</v>
+        <v>23.33478551700362</v>
       </c>
       <c r="G25">
-        <v>33.08328487674216</v>
+        <v>31.66953312152908</v>
       </c>
       <c r="H25">
-        <v>2.193094156948516</v>
+        <v>2.046167891811916</v>
       </c>
       <c r="I25">
-        <v>3.653610206869709</v>
+        <v>3.437252802082674</v>
       </c>
       <c r="J25">
-        <v>10.58504097910933</v>
+        <v>10.76016919847134</v>
       </c>
       <c r="K25">
-        <v>17.76986030812756</v>
+        <v>16.56991429776313</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.04693719807294</v>
       </c>
       <c r="M25">
-        <v>16.50891500560205</v>
+        <v>11.42979789996297</v>
       </c>
       <c r="N25">
-        <v>8.187382742724356</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.59047799863284</v>
       </c>
       <c r="P25">
-        <v>12.9156224621367</v>
+        <v>8.477389456472512</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.67306141189021</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
